--- a/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário_Classes_Propriedades.xlsx
+++ b/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário_Classes_Propriedades.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_HidroSanitário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DBD9B5-B576-4F27-BDB1-7BB278633E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2DAFD-B56E-40EA-99AB-CAA2AA636F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="23" r:id="rId1"/>
     <sheet name="Proprie" sheetId="9" r:id="rId2"/>
     <sheet name="Disjunt" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="24" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$U$56</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="160">
   <si>
     <t>xsd:string</t>
   </si>
@@ -322,9 +321,6 @@
     <t>tem.identificador</t>
   </si>
   <si>
-    <t>BIM</t>
-  </si>
-  <si>
     <t>tubulação</t>
   </si>
   <si>
@@ -511,15 +507,6 @@
     <t>OST_PlumbingFixtures</t>
   </si>
   <si>
-    <t>ifc</t>
-  </si>
-  <si>
-    <t>OST</t>
-  </si>
-  <si>
-    <t>Hidrosanitário</t>
-  </si>
-  <si>
     <t>Instalação</t>
   </si>
   <si>
@@ -539,15 +526,6 @@
   </si>
   <si>
     <t>( ifcSanitaryTerminaI or ifcWasteTerminal) or OST_PlumbingEquipment</t>
-  </si>
-  <si>
-    <t>ifcPump or ( OST_PlumbingEquipment or PlumbingFixtures )</t>
-  </si>
-  <si>
-    <t>ifcTank  or  ( OST_PlumbingEquipment or PlumbingFixtures )</t>
-  </si>
-  <si>
-    <t>ifcVaIve or ( OST_PlumbingEquipment or PlumbingFixtures )</t>
   </si>
   <si>
     <t>ifcPipeSegment or ( OST_PipeSegments or OST_FlexPipeCurves )</t>
@@ -584,6 +562,27 @@
   </si>
   <si>
     <t>ifcTank  or  ( OST_PlumbingEquipment or OST_PlumbingFixtures )</t>
+  </si>
+  <si>
+    <t>Hidrosanitária</t>
+  </si>
+  <si>
+    <t>Hidráulica</t>
+  </si>
+  <si>
+    <t>Esgoto</t>
+  </si>
+  <si>
+    <t>Hid.OST</t>
+  </si>
+  <si>
+    <t>Hid.IFC</t>
+  </si>
+  <si>
+    <t>Hid.IFC or Hid.OST</t>
+  </si>
+  <si>
+    <t>Peças.Hidro</t>
   </si>
 </sst>
 </file>
@@ -1118,94 +1117,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
+  <dxfs count="136">
     <dxf>
       <font>
         <b val="0"/>
-        <i/>
+        <i val="0"/>
         <strike val="0"/>
-        <color theme="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4847,45 +4799,6 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -53169,43 +53082,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:U56" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143" totalsRowBorderDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:U56" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="Super_x000a_Class_x000a_2" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="Super_x000a_Class_x000a_3" dataDxfId="138"/>
-    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="Super_x000a_Class_x000a_4" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe_x000a_5" dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: _x000a_Raiz_x000a_Condições _x000a_necessárias" dataDxfId="135"/>
-    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: _x000a_Classe2_x000a_Condições _x000a_necessárias" dataDxfId="134"/>
-    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: _x000a_Classe3_x000a_Condições _x000a_necessárias" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: _x000a_Classe4 _x000a_Condições _x000a_necessárias" dataDxfId="132"/>
-    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: _x000a_Classe5_x000a_Condições _x000a_necessárias" dataDxfId="131"/>
-    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações _x000a_de ajuda_x000a_Classe 1" dataDxfId="130">
+    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="Super_x000a_Class_x000a_2" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="Super_x000a_Class_x000a_3" dataDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="Super_x000a_Class_x000a_4" dataDxfId="127"/>
+    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe_x000a_5" dataDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: _x000a_Raiz_x000a_Condições _x000a_necessárias" dataDxfId="125"/>
+    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: _x000a_Classe2_x000a_Condições _x000a_necessárias" dataDxfId="124"/>
+    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: _x000a_Classe3_x000a_Condições _x000a_necessárias" dataDxfId="123"/>
+    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: _x000a_Classe4 _x000a_Condições _x000a_necessárias" dataDxfId="122"/>
+    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: _x000a_Classe5_x000a_Condições _x000a_necessárias" dataDxfId="121"/>
+    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações _x000a_de ajuda_x000a_Classe 1" dataDxfId="120">
       <calculatedColumnFormula>_xlfn.CONCAT("Conceitos: ", B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações _x000a_de ajuda_x000a_Classe 2" dataDxfId="129">
+    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações _x000a_de ajuda_x000a_Classe 2" dataDxfId="119">
       <calculatedColumnFormula>_xlfn.CONCAT(C2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações _x000a_de ajuda_x000a_Classe 3" dataDxfId="128">
+    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações _x000a_de ajuda_x000a_Classe 3" dataDxfId="118">
       <calculatedColumnFormula>_xlfn.CONCAT(D2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações _x000a_de ajuda_x000a_Classe 4" dataDxfId="127">
+    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações _x000a_de ajuda_x000a_Classe 4" dataDxfId="117">
       <calculatedColumnFormula>_xlfn.CONCAT(E2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{4E2C6E2F-FBDF-486E-9FF7-21C4D4B18283}" name="Anotações _x000a_de ajuda_x000a_Classe 5" dataDxfId="126">
+    <tableColumn id="22" xr3:uid="{4E2C6E2F-FBDF-486E-9FF7-21C4D4B18283}" name="Anotações _x000a_de ajuda_x000a_Classe 5" dataDxfId="116">
       <calculatedColumnFormula>_xlfn.CONCAT(F2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações _x000a_de ajuda_x000a_Conceito" dataDxfId="125">
+    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações _x000a_de ajuda_x000a_Conceito" dataDxfId="115">
       <calculatedColumnFormula>_xlfn.CONCAT(SUBSTITUTE(L2, "null", " ")," ",SUBSTITUTE(M2, "null", " ")," ",SUBSTITUTE(N2, "null", " ")," ",SUBSTITUTE(O2, "null", " ")," ", SUBSTITUTE(F2, "null", " "))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações _x000a_de ajuda1" dataDxfId="124">
+    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações _x000a_de ajuda1" dataDxfId="114">
       <calculatedColumnFormula>_xlfn.CONCAT("Consultar  ",S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Anotações _x000a_de ajuda2" dataDxfId="123"/>
-    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações _x000a_de ajuda3" dataDxfId="122"/>
-    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="121">
+    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Anotações _x000a_de ajuda2" dataDxfId="113"/>
+    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações _x000a_de ajuda3" dataDxfId="112"/>
+    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="111">
       <calculatedColumnFormula>_xlfn.CONCAT("Hidra-key_",A2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -53214,38 +53127,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V17" headerRowDxfId="120" dataDxfId="118" totalsRowDxfId="116" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V17" headerRowDxfId="110" dataDxfId="108" totalsRowDxfId="106" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="105">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula>P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula>Q1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -53254,29 +53167,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="52"/>
-    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="50"/>
-    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="49"/>
-    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="48"/>
-    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="47"/>
-    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="46"/>
-    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -53581,28 +53494,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1CF42B-C783-4349-9A5C-FEC66E5FAE0F}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G32" sqref="G32"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="49" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7.44140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="37" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="12" customWidth="1"/>
+    <col min="7" max="8" width="7.44140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="35" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.21875" style="12" customWidth="1"/>
     <col min="14" max="14" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.109375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="39.33203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="45.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5546875" style="4" customWidth="1"/>
     <col min="20" max="20" width="7.5546875" style="12" customWidth="1"/>
@@ -53679,20 +53594,20 @@
       <c r="A2" s="38">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>72</v>
+      <c r="B2" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="46" t="s">
         <v>3</v>
@@ -53701,7 +53616,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>3</v>
@@ -53711,19 +53626,19 @@
       </c>
       <c r="L2" s="39" t="str">
         <f t="shared" ref="L2:L56" si="0">_xlfn.CONCAT("Conceitos: ", B2)</f>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M2" s="39" t="str">
         <f t="shared" ref="M2:M56" si="1">_xlfn.CONCAT(C2," ")</f>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N2" s="39" t="str">
         <f t="shared" ref="N2:N56" si="2">_xlfn.CONCAT(D2," ")</f>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O2" s="39" t="str">
         <f t="shared" ref="O2:O56" si="3">_xlfn.CONCAT(E2," ")</f>
-        <v xml:space="preserve">ifc </v>
+        <v xml:space="preserve">Hid.IFC </v>
       </c>
       <c r="P2" s="39" t="str">
         <f t="shared" ref="P2:P33" si="4">_xlfn.CONCAT(F2," ")</f>
@@ -53731,7 +53646,7 @@
       </c>
       <c r="Q2" s="39" t="str">
         <f t="shared" ref="Q2:Q56" si="5">_xlfn.CONCAT(SUBSTITUTE(L2, "null", " ")," ",SUBSTITUTE(M2, "null", " ")," ",SUBSTITUTE(N2, "null", " ")," ",SUBSTITUTE(O2, "null", " ")," ", SUBSTITUTE(F2, "null", " "))</f>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  ifc  ifcDiscreteAccessory</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.IFC  ifcDiscreteAccessory</v>
       </c>
       <c r="R2" s="48" t="str">
         <f t="shared" ref="R2:R9" si="6">_xlfn.CONCAT("Consultar  ",S2)</f>
@@ -53752,20 +53667,20 @@
       <c r="A3" s="38">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>72</v>
+      <c r="B3" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="46" t="s">
         <v>3</v>
@@ -53784,19 +53699,19 @@
       </c>
       <c r="L3" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M3" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N3" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O3" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">ifc </v>
+        <v xml:space="preserve">Hid.IFC </v>
       </c>
       <c r="P3" s="39" t="str">
         <f t="shared" si="4"/>
@@ -53804,7 +53719,7 @@
       </c>
       <c r="Q3" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  ifc  ifcPipeFitting</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.IFC  ifcPipeFitting</v>
       </c>
       <c r="R3" s="48" t="str">
         <f t="shared" si="6"/>
@@ -53825,20 +53740,20 @@
       <c r="A4" s="38">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>72</v>
+      <c r="B4" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>3</v>
@@ -53857,19 +53772,19 @@
       </c>
       <c r="L4" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M4" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N4" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O4" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">ifc </v>
+        <v xml:space="preserve">Hid.IFC </v>
       </c>
       <c r="P4" s="39" t="str">
         <f t="shared" si="4"/>
@@ -53877,7 +53792,7 @@
       </c>
       <c r="Q4" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  ifc  ifcPipeSegment</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.IFC  ifcPipeSegment</v>
       </c>
       <c r="R4" s="48" t="str">
         <f t="shared" si="6"/>
@@ -53898,20 +53813,20 @@
       <c r="A5" s="38">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>72</v>
+      <c r="B5" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>3</v>
@@ -53930,19 +53845,19 @@
       </c>
       <c r="L5" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M5" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N5" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O5" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">ifc </v>
+        <v xml:space="preserve">Hid.IFC </v>
       </c>
       <c r="P5" s="39" t="str">
         <f t="shared" si="4"/>
@@ -53950,7 +53865,7 @@
       </c>
       <c r="Q5" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  ifc  ifcPump</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.IFC  ifcPump</v>
       </c>
       <c r="R5" s="48" t="str">
         <f t="shared" si="6"/>
@@ -53971,20 +53886,20 @@
       <c r="A6" s="38">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>72</v>
+      <c r="B6" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>3</v>
@@ -54003,19 +53918,19 @@
       </c>
       <c r="L6" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M6" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N6" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O6" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">ifc </v>
+        <v xml:space="preserve">Hid.IFC </v>
       </c>
       <c r="P6" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54023,7 +53938,7 @@
       </c>
       <c r="Q6" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  ifc  ifcSanitaryTerminaI</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.IFC  ifcSanitaryTerminaI</v>
       </c>
       <c r="R6" s="48" t="str">
         <f t="shared" si="6"/>
@@ -54044,20 +53959,20 @@
       <c r="A7" s="38">
         <v>7</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>72</v>
+      <c r="B7" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>3</v>
@@ -54076,19 +53991,19 @@
       </c>
       <c r="L7" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M7" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N7" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O7" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">ifc </v>
+        <v xml:space="preserve">Hid.IFC </v>
       </c>
       <c r="P7" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54096,7 +54011,7 @@
       </c>
       <c r="Q7" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  ifc  ifcTank</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.IFC  ifcTank</v>
       </c>
       <c r="R7" s="48" t="str">
         <f t="shared" si="6"/>
@@ -54117,20 +54032,20 @@
       <c r="A8" s="38">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>72</v>
+      <c r="B8" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>3</v>
@@ -54149,19 +54064,19 @@
       </c>
       <c r="L8" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M8" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N8" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O8" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">ifc </v>
+        <v xml:space="preserve">Hid.IFC </v>
       </c>
       <c r="P8" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54169,7 +54084,7 @@
       </c>
       <c r="Q8" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  ifc  ifcVaIve</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.IFC  ifcVaIve</v>
       </c>
       <c r="R8" s="48" t="str">
         <f t="shared" si="6"/>
@@ -54190,20 +54105,20 @@
       <c r="A9" s="38">
         <v>9</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>72</v>
+      <c r="B9" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>3</v>
@@ -54222,19 +54137,19 @@
       </c>
       <c r="L9" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M9" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N9" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O9" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">ifc </v>
+        <v xml:space="preserve">Hid.IFC </v>
       </c>
       <c r="P9" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54242,7 +54157,7 @@
       </c>
       <c r="Q9" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  ifc  ifcWasteTerminal</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.IFC  ifcWasteTerminal</v>
       </c>
       <c r="R9" s="39" t="str">
         <f t="shared" si="6"/>
@@ -54263,20 +54178,20 @@
       <c r="A10" s="38">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>72</v>
+      <c r="B10" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>3</v>
@@ -54295,19 +54210,19 @@
       </c>
       <c r="L10" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M10" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N10" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O10" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">OST </v>
+        <v xml:space="preserve">Hid.OST </v>
       </c>
       <c r="P10" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54315,7 +54230,7 @@
       </c>
       <c r="Q10" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  OST  OST_FlexPipeCurves</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.OST  OST_FlexPipeCurves</v>
       </c>
       <c r="R10" s="39" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S10)</f>
@@ -54336,20 +54251,20 @@
       <c r="A11" s="38">
         <v>11</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>72</v>
+      <c r="B11" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>3</v>
@@ -54368,19 +54283,19 @@
       </c>
       <c r="L11" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M11" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N11" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O11" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">OST </v>
+        <v xml:space="preserve">Hid.OST </v>
       </c>
       <c r="P11" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54388,7 +54303,7 @@
       </c>
       <c r="Q11" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  OST  OST_PipeAccessory</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.OST  OST_PipeAccessory</v>
       </c>
       <c r="R11" s="39" t="str">
         <f t="shared" ref="R11:R17" si="8">_xlfn.CONCAT("Consultar  ",S11)</f>
@@ -54409,20 +54324,20 @@
       <c r="A12" s="38">
         <v>12</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>72</v>
+      <c r="B12" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>3</v>
@@ -54441,19 +54356,19 @@
       </c>
       <c r="L12" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M12" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N12" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O12" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">OST </v>
+        <v xml:space="preserve">Hid.OST </v>
       </c>
       <c r="P12" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54461,7 +54376,7 @@
       </c>
       <c r="Q12" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  OST  OST_PipeFitting</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.OST  OST_PipeFitting</v>
       </c>
       <c r="R12" s="39" t="str">
         <f t="shared" si="8"/>
@@ -54482,20 +54397,20 @@
       <c r="A13" s="38">
         <v>13</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>72</v>
+      <c r="B13" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>3</v>
@@ -54514,19 +54429,19 @@
       </c>
       <c r="L13" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M13" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N13" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O13" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">OST </v>
+        <v xml:space="preserve">Hid.OST </v>
       </c>
       <c r="P13" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54534,7 +54449,7 @@
       </c>
       <c r="Q13" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  OST  OST_PipeInsulations</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.OST  OST_PipeInsulations</v>
       </c>
       <c r="R13" s="39" t="str">
         <f t="shared" si="8"/>
@@ -54555,20 +54470,20 @@
       <c r="A14" s="38">
         <v>14</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>72</v>
+      <c r="B14" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="46" t="s">
         <v>3</v>
@@ -54587,19 +54502,19 @@
       </c>
       <c r="L14" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M14" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N14" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O14" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">OST </v>
+        <v xml:space="preserve">Hid.OST </v>
       </c>
       <c r="P14" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54607,7 +54522,7 @@
       </c>
       <c r="Q14" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  OST  OST_PipeSegments</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.OST  OST_PipeSegments</v>
       </c>
       <c r="R14" s="39" t="str">
         <f t="shared" si="8"/>
@@ -54628,20 +54543,20 @@
       <c r="A15" s="38">
         <v>15</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>72</v>
+      <c r="B15" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="46" t="s">
         <v>3</v>
@@ -54660,19 +54575,19 @@
       </c>
       <c r="L15" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M15" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N15" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O15" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">OST </v>
+        <v xml:space="preserve">Hid.OST </v>
       </c>
       <c r="P15" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54680,7 +54595,7 @@
       </c>
       <c r="Q15" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  OST  OST_PlumbingEquipment</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.OST  OST_PlumbingEquipment</v>
       </c>
       <c r="R15" s="39" t="str">
         <f t="shared" si="8"/>
@@ -54701,20 +54616,20 @@
       <c r="A16" s="38">
         <v>16</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>72</v>
+      <c r="B16" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="46" t="s">
         <v>3</v>
@@ -54733,19 +54648,19 @@
       </c>
       <c r="L16" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M16" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N16" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Peças.Hidro </v>
       </c>
       <c r="O16" s="39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">OST </v>
+        <v xml:space="preserve">Hid.OST </v>
       </c>
       <c r="P16" s="39" t="str">
         <f t="shared" si="4"/>
@@ -54753,7 +54668,7 @@
       </c>
       <c r="Q16" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  OST  OST_PlumbingFixtures</v>
+        <v>Conceitos: Instalação Hidrosanitária  Peças.Hidro  Hid.OST  OST_PlumbingFixtures</v>
       </c>
       <c r="R16" s="39" t="str">
         <f t="shared" si="8"/>
@@ -54774,20 +54689,20 @@
       <c r="A17" s="38">
         <v>17</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>72</v>
+      <c r="B17" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>3</v>
@@ -54802,19 +54717,19 @@
         <v>3</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L17" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M17" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N17" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O17" s="39" t="str">
         <f t="shared" si="3"/>
@@ -54826,7 +54741,7 @@
       </c>
       <c r="Q17" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaFria  AFR.Tubo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaFria  AFR.Tubo</v>
       </c>
       <c r="R17" s="39" t="str">
         <f t="shared" si="8"/>
@@ -54847,20 +54762,20 @@
       <c r="A18" s="38">
         <v>18</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>72</v>
+      <c r="B18" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>3</v>
@@ -54875,19 +54790,19 @@
         <v>3</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L18" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M18" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N18" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O18" s="39" t="str">
         <f t="shared" si="3"/>
@@ -54899,7 +54814,7 @@
       </c>
       <c r="Q18" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaFria  AFR.Conexão</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaFria  AFR.Conexão</v>
       </c>
       <c r="R18" s="48" t="str">
         <f t="shared" ref="R18:R36" si="9">_xlfn.CONCAT("Consultar  ",S18)</f>
@@ -54920,20 +54835,20 @@
       <c r="A19" s="38">
         <v>19</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>72</v>
+      <c r="B19" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>3</v>
@@ -54948,19 +54863,19 @@
         <v>3</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L19" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M19" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N19" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O19" s="39" t="str">
         <f t="shared" si="3"/>
@@ -54972,7 +54887,7 @@
       </c>
       <c r="Q19" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaFria  AFR.Válvula</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaFria  AFR.Válvula</v>
       </c>
       <c r="R19" s="48" t="str">
         <f t="shared" ref="R19:R20" si="10">_xlfn.CONCAT("Consultar  ",S19)</f>
@@ -54993,20 +54908,20 @@
       <c r="A20" s="38">
         <v>20</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>72</v>
+      <c r="B20" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="46" t="s">
         <v>3</v>
@@ -55021,19 +54936,19 @@
         <v>3</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L20" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M20" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N20" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O20" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55045,7 +54960,7 @@
       </c>
       <c r="Q20" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaFria  AFR.Acessório</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaFria  AFR.Acessório</v>
       </c>
       <c r="R20" s="48" t="str">
         <f t="shared" si="10"/>
@@ -55066,20 +54981,20 @@
       <c r="A21" s="38">
         <v>21</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>72</v>
+      <c r="B21" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="46" t="s">
         <v>3</v>
@@ -55094,19 +55009,19 @@
         <v>3</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L21" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M21" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N21" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O21" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55118,7 +55033,7 @@
       </c>
       <c r="Q21" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaFria  AFR.Bomba</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaFria  AFR.Bomba</v>
       </c>
       <c r="R21" s="48" t="str">
         <f t="shared" si="9"/>
@@ -55139,20 +55054,20 @@
       <c r="A22" s="38">
         <v>22</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>72</v>
+      <c r="B22" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="46" t="s">
         <v>3</v>
@@ -55167,19 +55082,19 @@
         <v>3</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L22" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M22" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N22" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O22" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55191,7 +55106,7 @@
       </c>
       <c r="Q22" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaFria  AFR.Armazenamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaFria  AFR.Armazenamento</v>
       </c>
       <c r="R22" s="48" t="str">
         <f t="shared" si="9"/>
@@ -55212,20 +55127,20 @@
       <c r="A23" s="38">
         <v>23</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>72</v>
+      <c r="B23" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>3</v>
@@ -55240,19 +55155,19 @@
         <v>3</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L23" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M23" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N23" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O23" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55264,7 +55179,7 @@
       </c>
       <c r="Q23" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaFria  AFR.Dispositivo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaFria  AFR.Dispositivo</v>
       </c>
       <c r="R23" s="48" t="str">
         <f t="shared" si="9"/>
@@ -55285,20 +55200,20 @@
       <c r="A24" s="38">
         <v>24</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>72</v>
+      <c r="B24" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>3</v>
@@ -55313,19 +55228,19 @@
         <v>3</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L24" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M24" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N24" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O24" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55337,7 +55252,7 @@
       </c>
       <c r="Q24" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaFria  AFR.Equipamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaFria  AFR.Equipamento</v>
       </c>
       <c r="R24" s="48" t="str">
         <f t="shared" si="9"/>
@@ -55358,20 +55273,20 @@
       <c r="A25" s="38">
         <v>25</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>72</v>
+      <c r="B25" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>3</v>
@@ -55386,19 +55301,19 @@
         <v>3</v>
       </c>
       <c r="K25" s="46" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L25" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M25" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N25" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O25" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55410,7 +55325,7 @@
       </c>
       <c r="Q25" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaQuente  AQT.Tubo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaQuente  AQT.Tubo</v>
       </c>
       <c r="R25" s="48" t="str">
         <f t="shared" si="9"/>
@@ -55431,20 +55346,20 @@
       <c r="A26" s="38">
         <v>26</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>72</v>
+      <c r="B26" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>3</v>
@@ -55459,19 +55374,19 @@
         <v>3</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L26" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M26" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N26" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O26" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55483,7 +55398,7 @@
       </c>
       <c r="Q26" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaQuente  AQT.Conexão</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaQuente  AQT.Conexão</v>
       </c>
       <c r="R26" s="48" t="str">
         <f t="shared" si="9"/>
@@ -55504,20 +55419,20 @@
       <c r="A27" s="38">
         <v>27</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>72</v>
+      <c r="B27" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>3</v>
@@ -55532,19 +55447,19 @@
         <v>3</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L27" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M27" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N27" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O27" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55556,7 +55471,7 @@
       </c>
       <c r="Q27" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaQuente  AQT.Válvula</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaQuente  AQT.Válvula</v>
       </c>
       <c r="R27" s="48" t="str">
         <f t="shared" si="9"/>
@@ -55577,20 +55492,20 @@
       <c r="A28" s="38">
         <v>28</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>72</v>
+      <c r="B28" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>3</v>
@@ -55605,19 +55520,19 @@
         <v>3</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L28" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M28" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N28" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O28" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55629,7 +55544,7 @@
       </c>
       <c r="Q28" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaQuente  AQT.Acessório</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaQuente  AQT.Acessório</v>
       </c>
       <c r="R28" s="48" t="str">
         <f t="shared" ref="R28" si="11">_xlfn.CONCAT("Consultar  ",S28)</f>
@@ -55650,20 +55565,20 @@
       <c r="A29" s="38">
         <v>29</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>72</v>
+      <c r="B29" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G29" s="46" t="s">
         <v>3</v>
@@ -55678,19 +55593,19 @@
         <v>3</v>
       </c>
       <c r="K29" s="46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L29" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M29" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N29" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O29" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55702,7 +55617,7 @@
       </c>
       <c r="Q29" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaQuente  AQT.Bomba</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaQuente  AQT.Bomba</v>
       </c>
       <c r="R29" s="39" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S29)</f>
@@ -55723,20 +55638,20 @@
       <c r="A30" s="38">
         <v>30</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>72</v>
+      <c r="B30" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G30" s="46" t="s">
         <v>3</v>
@@ -55751,19 +55666,19 @@
         <v>3</v>
       </c>
       <c r="K30" s="46" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L30" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M30" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N30" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O30" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55775,7 +55690,7 @@
       </c>
       <c r="Q30" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaQuente  AQT.Armazenamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaQuente  AQT.Armazenamento</v>
       </c>
       <c r="R30" s="39" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S30)</f>
@@ -55796,20 +55711,20 @@
       <c r="A31" s="38">
         <v>31</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>72</v>
+      <c r="B31" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G31" s="46" t="s">
         <v>3</v>
@@ -55824,19 +55739,19 @@
         <v>3</v>
       </c>
       <c r="K31" s="46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L31" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M31" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N31" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O31" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55848,7 +55763,7 @@
       </c>
       <c r="Q31" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaQuente  AQT.Dispositivo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaQuente  AQT.Dispositivo</v>
       </c>
       <c r="R31" s="48" t="str">
         <f t="shared" si="9"/>
@@ -55869,20 +55784,20 @@
       <c r="A32" s="38">
         <v>32</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>72</v>
+      <c r="B32" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>3</v>
@@ -55897,19 +55812,19 @@
         <v>3</v>
       </c>
       <c r="K32" s="46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L32" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M32" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N32" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Hidráulica </v>
       </c>
       <c r="O32" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55921,7 +55836,7 @@
       </c>
       <c r="Q32" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  AguaQuente  AQT.Equipamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Hidráulica  AguaQuente  AQT.Equipamento</v>
       </c>
       <c r="R32" s="48" t="str">
         <f t="shared" si="9"/>
@@ -55942,20 +55857,20 @@
       <c r="A33" s="38">
         <v>33</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>72</v>
+      <c r="B33" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="46" t="s">
         <v>3</v>
@@ -55970,19 +55885,19 @@
         <v>3</v>
       </c>
       <c r="K33" s="46" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L33" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M33" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N33" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O33" s="39" t="str">
         <f t="shared" si="3"/>
@@ -55994,7 +55909,7 @@
       </c>
       <c r="Q33" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoPrimário  ESG.Tubo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoPrimário  ESG.Tubo</v>
       </c>
       <c r="R33" s="48" t="str">
         <f t="shared" si="9"/>
@@ -56015,20 +55930,20 @@
       <c r="A34" s="38">
         <v>34</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>72</v>
+      <c r="B34" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="46" t="s">
         <v>3</v>
@@ -56043,19 +55958,19 @@
         <v>3</v>
       </c>
       <c r="K34" s="46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L34" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M34" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N34" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O34" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56067,7 +55982,7 @@
       </c>
       <c r="Q34" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoPrimário  ESG.Conexão</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoPrimário  ESG.Conexão</v>
       </c>
       <c r="R34" s="48" t="str">
         <f t="shared" si="9"/>
@@ -56088,20 +56003,20 @@
       <c r="A35" s="38">
         <v>35</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>72</v>
+      <c r="B35" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" s="46" t="s">
         <v>3</v>
@@ -56116,19 +56031,19 @@
         <v>3</v>
       </c>
       <c r="K35" s="46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L35" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M35" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N35" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O35" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56140,7 +56055,7 @@
       </c>
       <c r="Q35" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoPrimário  ESG.Válvula</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoPrimário  ESG.Válvula</v>
       </c>
       <c r="R35" s="48" t="str">
         <f t="shared" si="9"/>
@@ -56161,20 +56076,20 @@
       <c r="A36" s="38">
         <v>36</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>72</v>
+      <c r="B36" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="46" t="s">
         <v>3</v>
@@ -56189,19 +56104,19 @@
         <v>3</v>
       </c>
       <c r="K36" s="46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M36" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N36" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O36" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56213,7 +56128,7 @@
       </c>
       <c r="Q36" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoPrimário  ESG.Acessório</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoPrimário  ESG.Acessório</v>
       </c>
       <c r="R36" s="48" t="str">
         <f t="shared" si="9"/>
@@ -56234,20 +56149,20 @@
       <c r="A37" s="38">
         <v>37</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>72</v>
+      <c r="B37" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="46" t="s">
         <v>3</v>
@@ -56262,19 +56177,19 @@
         <v>3</v>
       </c>
       <c r="K37" s="46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L37" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M37" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N37" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O37" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56286,7 +56201,7 @@
       </c>
       <c r="Q37" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoPrimário  ESG.Bomba</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoPrimário  ESG.Bomba</v>
       </c>
       <c r="R37" s="39" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S37)</f>
@@ -56307,20 +56222,20 @@
       <c r="A38" s="38">
         <v>38</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>72</v>
+      <c r="B38" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="46" t="s">
         <v>3</v>
@@ -56335,19 +56250,19 @@
         <v>3</v>
       </c>
       <c r="K38" s="46" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L38" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M38" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N38" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O38" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56359,7 +56274,7 @@
       </c>
       <c r="Q38" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoPrimário  ESG.Armazenamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoPrimário  ESG.Armazenamento</v>
       </c>
       <c r="R38" s="39" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S38)</f>
@@ -56380,20 +56295,20 @@
       <c r="A39" s="38">
         <v>39</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>72</v>
+      <c r="B39" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="46" t="s">
         <v>3</v>
@@ -56408,19 +56323,19 @@
         <v>3</v>
       </c>
       <c r="K39" s="46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L39" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M39" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N39" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O39" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56432,7 +56347,7 @@
       </c>
       <c r="Q39" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoPrimário  ESG.Dispositivo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoPrimário  ESG.Dispositivo</v>
       </c>
       <c r="R39" s="48" t="str">
         <f t="shared" ref="R39:R44" si="13">_xlfn.CONCAT("Consultar  ",S39)</f>
@@ -56453,20 +56368,20 @@
       <c r="A40" s="38">
         <v>40</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>72</v>
+      <c r="B40" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>3</v>
@@ -56481,19 +56396,19 @@
         <v>3</v>
       </c>
       <c r="K40" s="46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L40" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M40" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N40" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O40" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56505,7 +56420,7 @@
       </c>
       <c r="Q40" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoPrimário  ESG.Equipamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoPrimário  ESG.Equipamento</v>
       </c>
       <c r="R40" s="48" t="str">
         <f t="shared" si="13"/>
@@ -56526,20 +56441,20 @@
       <c r="A41" s="38">
         <v>41</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>72</v>
+      <c r="B41" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" s="46" t="s">
         <v>3</v>
@@ -56554,19 +56469,19 @@
         <v>3</v>
       </c>
       <c r="K41" s="46" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L41" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M41" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N41" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O41" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56578,7 +56493,7 @@
       </c>
       <c r="Q41" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoSecundário  SEC.Tubo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoSecundário  SEC.Tubo</v>
       </c>
       <c r="R41" s="48" t="str">
         <f t="shared" si="13"/>
@@ -56599,20 +56514,20 @@
       <c r="A42" s="38">
         <v>42</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>72</v>
+      <c r="B42" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C42" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="46" t="s">
         <v>3</v>
@@ -56627,19 +56542,19 @@
         <v>3</v>
       </c>
       <c r="K42" s="46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L42" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M42" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N42" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O42" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56651,7 +56566,7 @@
       </c>
       <c r="Q42" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoSecundário  SEC.Conexão</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoSecundário  SEC.Conexão</v>
       </c>
       <c r="R42" s="48" t="str">
         <f t="shared" si="13"/>
@@ -56672,20 +56587,20 @@
       <c r="A43" s="38">
         <v>43</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>72</v>
+      <c r="B43" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G43" s="46" t="s">
         <v>3</v>
@@ -56700,19 +56615,19 @@
         <v>3</v>
       </c>
       <c r="K43" s="46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L43" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M43" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N43" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O43" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56724,7 +56639,7 @@
       </c>
       <c r="Q43" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoSecundário  SEC.Válvula</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoSecundário  SEC.Válvula</v>
       </c>
       <c r="R43" s="48" t="str">
         <f t="shared" si="13"/>
@@ -56745,20 +56660,20 @@
       <c r="A44" s="38">
         <v>44</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>72</v>
+      <c r="B44" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="46" t="s">
         <v>3</v>
@@ -56773,19 +56688,19 @@
         <v>3</v>
       </c>
       <c r="K44" s="46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L44" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M44" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N44" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O44" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56797,7 +56712,7 @@
       </c>
       <c r="Q44" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoSecundário  SEC.Acessório</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoSecundário  SEC.Acessório</v>
       </c>
       <c r="R44" s="48" t="str">
         <f t="shared" si="13"/>
@@ -56818,20 +56733,20 @@
       <c r="A45" s="38">
         <v>45</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>72</v>
+      <c r="B45" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" s="46" t="s">
         <v>3</v>
@@ -56846,19 +56761,19 @@
         <v>3</v>
       </c>
       <c r="K45" s="46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L45" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M45" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N45" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O45" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56870,7 +56785,7 @@
       </c>
       <c r="Q45" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoSecundário  SEC.Bomba</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoSecundário  SEC.Bomba</v>
       </c>
       <c r="R45" s="39" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S45)</f>
@@ -56891,20 +56806,20 @@
       <c r="A46" s="38">
         <v>46</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>72</v>
+      <c r="B46" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G46" s="46" t="s">
         <v>3</v>
@@ -56919,19 +56834,19 @@
         <v>3</v>
       </c>
       <c r="K46" s="46" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L46" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M46" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N46" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O46" s="39" t="str">
         <f t="shared" si="3"/>
@@ -56943,7 +56858,7 @@
       </c>
       <c r="Q46" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoSecundário  SEC.Armazenamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoSecundário  SEC.Armazenamento</v>
       </c>
       <c r="R46" s="39" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S46)</f>
@@ -56964,20 +56879,20 @@
       <c r="A47" s="38">
         <v>47</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>72</v>
+      <c r="B47" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G47" s="46" t="s">
         <v>3</v>
@@ -56992,19 +56907,19 @@
         <v>3</v>
       </c>
       <c r="K47" s="46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L47" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M47" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N47" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O47" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57016,7 +56931,7 @@
       </c>
       <c r="Q47" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoSecundário  SEC.Dispositivo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoSecundário  SEC.Dispositivo</v>
       </c>
       <c r="R47" s="48" t="str">
         <f t="shared" ref="R47:R52" si="14">_xlfn.CONCAT("Consultar  ",S47)</f>
@@ -57037,20 +56952,20 @@
       <c r="A48" s="38">
         <v>48</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>72</v>
+      <c r="B48" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>3</v>
@@ -57065,19 +56980,19 @@
         <v>3</v>
       </c>
       <c r="K48" s="46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L48" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M48" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N48" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O48" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57089,7 +57004,7 @@
       </c>
       <c r="Q48" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  EsgotoSecundário  SEC.Equipamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  EsgotoSecundário  SEC.Equipamento</v>
       </c>
       <c r="R48" s="48" t="str">
         <f t="shared" si="14"/>
@@ -57110,20 +57025,20 @@
       <c r="A49" s="38">
         <v>49</v>
       </c>
-      <c r="B49" s="20" t="s">
-        <v>72</v>
+      <c r="B49" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C49" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>3</v>
@@ -57138,19 +57053,19 @@
         <v>3</v>
       </c>
       <c r="K49" s="46" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L49" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M49" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N49" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O49" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57162,7 +57077,7 @@
       </c>
       <c r="Q49" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  Ventilação  VEN.Tubo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  Ventilação  VEN.Tubo</v>
       </c>
       <c r="R49" s="39" t="str">
         <f t="shared" si="14"/>
@@ -57183,20 +57098,20 @@
       <c r="A50" s="38">
         <v>50</v>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>72</v>
+      <c r="B50" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>3</v>
@@ -57211,19 +57126,19 @@
         <v>3</v>
       </c>
       <c r="K50" s="46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L50" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M50" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N50" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O50" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57235,7 +57150,7 @@
       </c>
       <c r="Q50" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  Ventilação  VEN.Conexão</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  Ventilação  VEN.Conexão</v>
       </c>
       <c r="R50" s="39" t="str">
         <f t="shared" si="14"/>
@@ -57256,20 +57171,20 @@
       <c r="A51" s="38">
         <v>51</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>72</v>
+      <c r="B51" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>3</v>
@@ -57284,19 +57199,19 @@
         <v>3</v>
       </c>
       <c r="K51" s="46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L51" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M51" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N51" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O51" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57308,7 +57223,7 @@
       </c>
       <c r="Q51" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  Ventilação  VEN.Válvula</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  Ventilação  VEN.Válvula</v>
       </c>
       <c r="R51" s="39" t="str">
         <f t="shared" si="14"/>
@@ -57329,20 +57244,20 @@
       <c r="A52" s="38">
         <v>52</v>
       </c>
-      <c r="B52" s="20" t="s">
-        <v>72</v>
+      <c r="B52" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>3</v>
@@ -57357,19 +57272,19 @@
         <v>3</v>
       </c>
       <c r="K52" s="46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L52" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M52" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N52" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O52" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57381,7 +57296,7 @@
       </c>
       <c r="Q52" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  Ventilação  VEN.Acessório</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  Ventilação  VEN.Acessório</v>
       </c>
       <c r="R52" s="39" t="str">
         <f t="shared" si="14"/>
@@ -57402,20 +57317,20 @@
       <c r="A53" s="38">
         <v>53</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>72</v>
+      <c r="B53" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C53" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>3</v>
@@ -57430,19 +57345,19 @@
         <v>3</v>
       </c>
       <c r="K53" s="46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L53" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M53" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N53" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O53" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57454,7 +57369,7 @@
       </c>
       <c r="Q53" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  Ventilação  VEN.Bomba</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  Ventilação  VEN.Bomba</v>
       </c>
       <c r="R53" s="39" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S53)</f>
@@ -57475,20 +57390,20 @@
       <c r="A54" s="38">
         <v>54</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>72</v>
+      <c r="B54" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C54" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>3</v>
@@ -57503,19 +57418,19 @@
         <v>3</v>
       </c>
       <c r="K54" s="46" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L54" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M54" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N54" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O54" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57527,7 +57442,7 @@
       </c>
       <c r="Q54" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  Ventilação  VEN.Armazenamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  Ventilação  VEN.Armazenamento</v>
       </c>
       <c r="R54" s="39" t="str">
         <f>_xlfn.CONCAT("Consultar  ",S54)</f>
@@ -57548,20 +57463,20 @@
       <c r="A55" s="38">
         <v>55</v>
       </c>
-      <c r="B55" s="20" t="s">
-        <v>72</v>
+      <c r="B55" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C55" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>3</v>
@@ -57576,19 +57491,19 @@
         <v>3</v>
       </c>
       <c r="K55" s="46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L55" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M55" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N55" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O55" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57600,7 +57515,7 @@
       </c>
       <c r="Q55" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  Ventilação  VEN.Dispositivo</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  Ventilação  VEN.Dispositivo</v>
       </c>
       <c r="R55" s="39" t="str">
         <f t="shared" ref="R55:R56" si="15">_xlfn.CONCAT("Consultar  ",S55)</f>
@@ -57621,20 +57536,20 @@
       <c r="A56" s="38">
         <v>56</v>
       </c>
-      <c r="B56" s="63" t="s">
-        <v>72</v>
+      <c r="B56" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F56" s="63" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>3</v>
@@ -57649,19 +57564,19 @@
         <v>3</v>
       </c>
       <c r="K56" s="46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L56" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>Conceitos: BIM</v>
+        <v>Conceitos: Instalação</v>
       </c>
       <c r="M56" s="39" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Instalação </v>
+        <v xml:space="preserve">Hidrosanitária </v>
       </c>
       <c r="N56" s="39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Hidrosanitário </v>
+        <v xml:space="preserve">Esgoto </v>
       </c>
       <c r="O56" s="39" t="str">
         <f t="shared" si="3"/>
@@ -57673,7 +57588,7 @@
       </c>
       <c r="Q56" s="39" t="str">
         <f t="shared" si="5"/>
-        <v>Conceitos: BIM Instalação  Hidrosanitário  Ventilação  VEN.Equipamento</v>
+        <v>Conceitos: Instalação Hidrosanitária  Esgoto  Ventilação  VEN.Equipamento</v>
       </c>
       <c r="R56" s="64" t="str">
         <f t="shared" si="15"/>
@@ -57693,86 +57608,41 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1 F57:F1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="35" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F16">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F16">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:K17 G57:K1048576 K19 K25 K27 K33 K35 K41 K43 G18:J56 K49 K51">
-    <cfRule type="cellIs" dxfId="25" priority="56" operator="equal">
+  <conditionalFormatting sqref="G18:J56 G57:K1048576 G1:K17">
+    <cfRule type="cellIs" dxfId="15" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:K24">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:K32">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:K40">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K48">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K56">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="K18:K56">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57789,10 +57659,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -57908,7 +57778,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>3</v>
@@ -57938,14 +57808,14 @@
         <v>3</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="R2" s="8" t="str">
         <f t="shared" ref="R2:R4" si="1">_xlfn.CONCAT("Propriedade: ",  F2, "    Domínio: ", P2, "     Range: ", Q2)</f>
-        <v>Propriedade: de.hidrosanit    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: de.hidrosanit    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S2" s="8" t="str">
         <f t="shared" ref="S2:S4" si="2">_xlfn.CONCAT("Valor:  ", C2)</f>
@@ -57983,7 +57853,7 @@
         <v>de.hidrosanit</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>3</v>
@@ -58018,11 +57888,11 @@
       </c>
       <c r="Q3" s="62" t="str">
         <f>Q2</f>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R3" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: classebim    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: classebim    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S3" s="8" t="str">
         <f t="shared" si="2"/>
@@ -58060,7 +57930,7 @@
         <v>classebim</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>28</v>
@@ -58095,11 +57965,11 @@
       </c>
       <c r="Q4" s="62" t="str">
         <f t="shared" ref="Q4:Q17" si="8">Q3</f>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R4" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: é.categoria    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: é.categoria    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S4" s="8" t="str">
         <f t="shared" si="2"/>
@@ -58135,7 +58005,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>3</v>
@@ -58170,11 +58040,11 @@
       </c>
       <c r="Q5" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R5" s="8" t="str">
         <f t="shared" ref="R5:R10" si="10">_xlfn.CONCAT("Propriedade: ",  F5, "    Domínio: ", P5, "     Range: ", Q5)</f>
-        <v>Propriedade: de.hidrosanit    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: de.hidrosanit    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S5" s="8" t="str">
         <f t="shared" ref="S5:S10" si="11">_xlfn.CONCAT("Valor:  ", C5)</f>
@@ -58212,7 +58082,7 @@
         <v>de.hidrosanit</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>3</v>
@@ -58247,11 +58117,11 @@
       </c>
       <c r="Q6" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R6" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>Propriedade: tubulação    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tubulação    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S6" s="8" t="str">
         <f t="shared" si="11"/>
@@ -58324,11 +58194,11 @@
       </c>
       <c r="Q7" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R7" s="8" t="str">
         <f>_xlfn.CONCAT("Propriedade: ",  F7, "    Domínio: ", P7, "     Range: ", Q7)</f>
-        <v>Propriedade: tem.identidade    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tem.identidade    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S7" s="8" t="str">
         <f t="shared" si="11"/>
@@ -58366,7 +58236,7 @@
         <v>tubulação</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>3</v>
@@ -58401,11 +58271,11 @@
       </c>
       <c r="Q8" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R8" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>Propriedade: é.tema    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: é.tema    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S8" s="8" t="str">
         <f t="shared" si="11"/>
@@ -58443,7 +58313,7 @@
         <v>tubulação</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>3</v>
@@ -58478,11 +58348,11 @@
       </c>
       <c r="Q9" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R9" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>Propriedade: tem.diámetro    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tem.diámetro    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S9" s="8" t="str">
         <f t="shared" si="11"/>
@@ -58520,7 +58390,7 @@
         <v>tubulação</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>3</v>
@@ -58555,11 +58425,11 @@
       </c>
       <c r="Q10" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R10" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>Propriedade: tem.material    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tem.material    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S10" s="8" t="str">
         <f t="shared" si="11"/>
@@ -58597,7 +58467,7 @@
         <v>tubulação</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>3</v>
@@ -58632,11 +58502,11 @@
       </c>
       <c r="Q11" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R11" s="8" t="str">
         <f t="shared" ref="R11:R17" si="21">_xlfn.CONCAT("Propriedade: ",  F11, "    Domínio: ", P11, "     Range: ", Q11)</f>
-        <v>Propriedade: tem.isolamento    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tem.isolamento    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S11" s="8" t="str">
         <f t="shared" ref="S11:S17" si="22">_xlfn.CONCAT("Valor:  ", C11)</f>
@@ -58709,11 +58579,11 @@
       </c>
       <c r="Q12" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R12" s="8" t="str">
         <f t="shared" ref="R12" si="26">_xlfn.CONCAT("Propriedade: ",  F12, "    Domínio: ", P12, "     Range: ", Q12)</f>
-        <v>Propriedade: tem.identificador    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tem.identificador    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S12" s="8" t="str">
         <f t="shared" ref="S12" si="27">_xlfn.CONCAT("Valor:  ", C12)</f>
@@ -58786,11 +58656,11 @@
       </c>
       <c r="Q13" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R13" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>Propriedade: tem.descrição    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tem.descrição    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S13" s="8" t="str">
         <f t="shared" si="22"/>
@@ -58828,7 +58698,7 @@
         <v>de.hidrosanit</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>3</v>
@@ -58863,11 +58733,11 @@
       </c>
       <c r="Q14" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R14" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>Propriedade: funcional    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: funcional    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S14" s="8" t="str">
         <f t="shared" si="22"/>
@@ -58906,7 +58776,7 @@
         <v>funcional</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>3</v>
@@ -58941,11 +58811,11 @@
       </c>
       <c r="Q15" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R15" s="8" t="str">
         <f t="shared" ref="R15" si="32">_xlfn.CONCAT("Propriedade: ",  F15, "    Domínio: ", P15, "     Range: ", Q15)</f>
-        <v>Propriedade: tem.sistema    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tem.sistema    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S15" s="8" t="str">
         <f t="shared" ref="S15" si="33">_xlfn.CONCAT("Valor:  ", C15)</f>
@@ -58984,7 +58854,7 @@
         <v>funcional</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>3</v>
@@ -59019,11 +58889,11 @@
       </c>
       <c r="Q16" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R16" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>Propriedade: tem.vazão    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tem.vazão    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S16" s="8" t="str">
         <f t="shared" si="22"/>
@@ -59062,7 +58932,7 @@
         <v>funcional</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="56" t="s">
         <v>3</v>
@@ -59097,11 +58967,11 @@
       </c>
       <c r="Q17" s="62" t="str">
         <f t="shared" si="8"/>
-        <v>Hidrosanitário</v>
+        <v>Hidrosanitária</v>
       </c>
       <c r="R17" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>Propriedade: tem.fluído    Domínio: Instalação     Range: Hidrosanitário</v>
+        <v>Propriedade: tem.fluído    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S17" s="8" t="str">
         <f t="shared" si="22"/>
@@ -59165,62 +59035,62 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2 D2:E2 E4">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D17">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5 B7:B13 E7:E13 B15:B17 E15:E17">
-    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O17 T2:T17">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21 G22:O1048576">
-    <cfRule type="cellIs" dxfId="14" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21:Q1048576">
-    <cfRule type="cellIs" dxfId="12" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59228,7 +59098,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E14 C14 C4" formula="1"/>
-    <ignoredError sqref="B15:B17 Q2" calculatedColumn="1"/>
+    <ignoredError sqref="B15:B17 P2:Q2" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -59241,7 +59111,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -59322,10 +59192,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>3</v>
@@ -59450,7 +59320,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59459,229 +59329,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F933C4-7DFD-49F4-8B04-280BFEA4C515}">
-  <dimension ref="A1:A40"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A40">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário_Classes_Propriedades.xlsx
+++ b/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário_Classes_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_HidroSanitário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2DAFD-B56E-40EA-99AB-CAA2AA636F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1007795B-C1B6-49D9-BBD8-0FDAD6C34853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="161">
   <si>
     <t>xsd:string</t>
   </si>
@@ -584,6 +584,9 @@
   <si>
     <t>Peças.Hidro</t>
   </si>
+  <si>
+    <t>tem.ID</t>
+  </si>
 </sst>
 </file>
 
@@ -1117,47 +1120,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="136">
+  <dxfs count="139">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
+        <i/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color theme="0"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4799,6 +4783,47 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -53082,43 +53107,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:U56" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:U56" totalsRowShown="0" headerRowDxfId="138" dataDxfId="136" headerRowBorderDxfId="137" tableBorderDxfId="135" totalsRowBorderDxfId="134">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="Super_x000a_Class_x000a_2" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="Super_x000a_Class_x000a_3" dataDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="Super_x000a_Class_x000a_4" dataDxfId="127"/>
-    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe_x000a_5" dataDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: _x000a_Raiz_x000a_Condições _x000a_necessárias" dataDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: _x000a_Classe2_x000a_Condições _x000a_necessárias" dataDxfId="124"/>
-    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: _x000a_Classe3_x000a_Condições _x000a_necessárias" dataDxfId="123"/>
-    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: _x000a_Classe4 _x000a_Condições _x000a_necessárias" dataDxfId="122"/>
-    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: _x000a_Classe5_x000a_Condições _x000a_necessárias" dataDxfId="121"/>
-    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações _x000a_de ajuda_x000a_Classe 1" dataDxfId="120">
+    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="Super_x000a_Class_x000a_2" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="Super_x000a_Class_x000a_3" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="Super_x000a_Class_x000a_4" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe_x000a_5" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: _x000a_Raiz_x000a_Condições _x000a_necessárias" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: _x000a_Classe2_x000a_Condições _x000a_necessárias" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: _x000a_Classe3_x000a_Condições _x000a_necessárias" dataDxfId="125"/>
+    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: _x000a_Classe4 _x000a_Condições _x000a_necessárias" dataDxfId="124"/>
+    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: _x000a_Classe5_x000a_Condições _x000a_necessárias" dataDxfId="123"/>
+    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações _x000a_de ajuda_x000a_Classe 1" dataDxfId="122">
       <calculatedColumnFormula>_xlfn.CONCAT("Conceitos: ", B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações _x000a_de ajuda_x000a_Classe 2" dataDxfId="119">
+    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações _x000a_de ajuda_x000a_Classe 2" dataDxfId="121">
       <calculatedColumnFormula>_xlfn.CONCAT(C2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações _x000a_de ajuda_x000a_Classe 3" dataDxfId="118">
+    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações _x000a_de ajuda_x000a_Classe 3" dataDxfId="120">
       <calculatedColumnFormula>_xlfn.CONCAT(D2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações _x000a_de ajuda_x000a_Classe 4" dataDxfId="117">
+    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações _x000a_de ajuda_x000a_Classe 4" dataDxfId="119">
       <calculatedColumnFormula>_xlfn.CONCAT(E2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{4E2C6E2F-FBDF-486E-9FF7-21C4D4B18283}" name="Anotações _x000a_de ajuda_x000a_Classe 5" dataDxfId="116">
+    <tableColumn id="22" xr3:uid="{4E2C6E2F-FBDF-486E-9FF7-21C4D4B18283}" name="Anotações _x000a_de ajuda_x000a_Classe 5" dataDxfId="118">
       <calculatedColumnFormula>_xlfn.CONCAT(F2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações _x000a_de ajuda_x000a_Conceito" dataDxfId="115">
+    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações _x000a_de ajuda_x000a_Conceito" dataDxfId="117">
       <calculatedColumnFormula>_xlfn.CONCAT(SUBSTITUTE(L2, "null", " ")," ",SUBSTITUTE(M2, "null", " ")," ",SUBSTITUTE(N2, "null", " ")," ",SUBSTITUTE(O2, "null", " ")," ", SUBSTITUTE(F2, "null", " "))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações _x000a_de ajuda1" dataDxfId="114">
+    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações _x000a_de ajuda1" dataDxfId="116">
       <calculatedColumnFormula>_xlfn.CONCAT("Consultar  ",S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Anotações _x000a_de ajuda2" dataDxfId="113"/>
-    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações _x000a_de ajuda3" dataDxfId="112"/>
-    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="111">
+    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Anotações _x000a_de ajuda2" dataDxfId="115"/>
+    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações _x000a_de ajuda3" dataDxfId="114"/>
+    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="113">
       <calculatedColumnFormula>_xlfn.CONCAT("Hidra-key_",A2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -53127,38 +53152,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V17" headerRowDxfId="110" dataDxfId="108" totalsRowDxfId="106" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V18" headerRowDxfId="112" dataDxfId="110" totalsRowDxfId="108" headerRowBorderDxfId="111" tableBorderDxfId="109" totalsRowBorderDxfId="107">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="104" totalsRowDxfId="103">
       <calculatedColumnFormula>E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula>Q1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="64" totalsRowDxfId="63">
+    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61">
+    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -53167,29 +53192,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="43"/>
+    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="42"/>
+    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="41"/>
+    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="40"/>
+    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="39"/>
+    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="38"/>
+    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -57608,41 +57633,41 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1 F57:F1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="25" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F16">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F16">
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:J56 G57:K1048576 G1:K17">
-    <cfRule type="cellIs" dxfId="15" priority="56" operator="equal">
+  <conditionalFormatting sqref="G1:K17 G18:J56 G57:K1048576">
+    <cfRule type="cellIs" dxfId="17" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K56">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57657,12 +57682,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -57960,11 +57985,11 @@
         <v>3</v>
       </c>
       <c r="P4" s="60" t="str">
-        <f t="shared" ref="P4:P17" si="7">P3</f>
+        <f t="shared" ref="P4:P18" si="7">P3</f>
         <v>Instalação</v>
       </c>
       <c r="Q4" s="62" t="str">
-        <f t="shared" ref="Q4:Q17" si="8">Q3</f>
+        <f t="shared" ref="Q4:Q18" si="8">Q3</f>
         <v>Hidrosanitária</v>
       </c>
       <c r="R4" s="8" t="str">
@@ -58043,22 +58068,22 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R5" s="8" t="str">
-        <f t="shared" ref="R5:R10" si="10">_xlfn.CONCAT("Propriedade: ",  F5, "    Domínio: ", P5, "     Range: ", Q5)</f>
+        <f t="shared" ref="R5:R11" si="10">_xlfn.CONCAT("Propriedade: ",  F5, "    Domínio: ", P5, "     Range: ", Q5)</f>
         <v>Propriedade: de.hidrosanit    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S5" s="8" t="str">
-        <f t="shared" ref="S5:S10" si="11">_xlfn.CONCAT("Valor:  ", C5)</f>
+        <f t="shared" ref="S5:S11" si="11">_xlfn.CONCAT("Valor:  ", C5)</f>
         <v>Valor:  de.hidrosanit</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U5" s="10" t="str">
-        <f t="shared" ref="U5:U8" si="12">_xlfn.CONCAT("Refere-se a propriedade  ",F5, "  &gt;  ",C5)</f>
+        <f t="shared" ref="U5:U9" si="12">_xlfn.CONCAT("Refere-se a propriedade  ",F5, "  &gt;  ",C5)</f>
         <v>Refere-se a propriedade  de.hidrosanit  &gt;  de.hidrosanit</v>
       </c>
       <c r="V5" s="11" t="str">
-        <f t="shared" ref="V5:V8" si="13">C5</f>
+        <f t="shared" ref="V5:V9" si="13">C5</f>
         <v>de.hidrosanit</v>
       </c>
     </row>
@@ -58144,11 +58169,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="str">
-        <f t="shared" ref="B7" si="14">E7</f>
+        <f t="shared" ref="B7:B8" si="14">E7</f>
         <v>tubulação</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" ref="C7" si="15">MID(F7,FIND(".",F7,1)+1,100)</f>
+        <f t="shared" ref="C7:C8" si="15">MID(F7,FIND(".",F7,1)+1,100)</f>
         <v>identidade</v>
       </c>
       <c r="D7" s="43" t="s">
@@ -58216,17 +58241,17 @@
         <v>identidade</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="17" t="str">
-        <f t="shared" ref="B8:B13" si="16">E8</f>
+        <f t="shared" si="14"/>
         <v>tubulação</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" ref="C8" si="17">MID(F8,FIND(".",F8,1)+1,100)</f>
-        <v>tema</v>
+        <f t="shared" si="15"/>
+        <v>ID</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>0</v>
@@ -58236,10 +58261,10 @@
         <v>tubulação</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>3</v>
@@ -58254,7 +58279,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>3</v>
@@ -58274,23 +58299,23 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R8" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>Propriedade: é.tema    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f>_xlfn.CONCAT("Propriedade: ",  F8, "    Domínio: ", P8, "     Range: ", Q8)</f>
+        <v>Propriedade: tem.ID    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S8" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>Valor:  tema</v>
+        <v>Valor:  ID</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="10" t="str">
         <f t="shared" si="12"/>
-        <v>Refere-se a propriedade  é.tema  &gt;  tema</v>
+        <v>Refere-se a propriedade  tem.ID  &gt;  ID</v>
       </c>
       <c r="V8" s="11" t="str">
         <f t="shared" si="13"/>
-        <v>tema</v>
+        <v>ID</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -58298,22 +58323,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B9:B14" si="16">E9</f>
         <v>tubulação</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" ref="C9:C10" si="18">MID(F9,FIND(".",F9,1)+1,100)</f>
-        <v>diámetro</v>
+        <f t="shared" ref="C9" si="17">MID(F9,FIND(".",F9,1)+1,100)</f>
+        <v>tema</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" ref="E9:E13" si="19">E8</f>
+        <f>E8</f>
         <v>tubulação</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>3</v>
@@ -58352,22 +58377,22 @@
       </c>
       <c r="R9" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>Propriedade: tem.diámetro    Domínio: Instalação     Range: Hidrosanitária</v>
+        <v>Propriedade: é.tema    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S9" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>Valor:  diámetro</v>
+        <v>Valor:  tema</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U9" s="10" t="str">
-        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F9, "  &gt;  ",C9)</f>
-        <v>Refere-se a propriedade  tem.diámetro  &gt;  diámetro</v>
+        <f t="shared" si="12"/>
+        <v>Refere-se a propriedade  é.tema  &gt;  tema</v>
       </c>
       <c r="V9" s="11" t="str">
-        <f>C9</f>
-        <v>diámetro</v>
+        <f t="shared" si="13"/>
+        <v>tema</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -58379,18 +58404,18 @@
         <v>tubulação</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>material</v>
+        <f t="shared" ref="C10:C11" si="18">MID(F10,FIND(".",F10,1)+1,100)</f>
+        <v>diámetro</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="E10:E14" si="19">E9</f>
         <v>tubulação</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>3</v>
@@ -58429,22 +58454,22 @@
       </c>
       <c r="R10" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>Propriedade: tem.material    Domínio: Instalação     Range: Hidrosanitária</v>
+        <v>Propriedade: tem.diámetro    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S10" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>Valor:  material</v>
+        <v>Valor:  diámetro</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U10" s="10" t="str">
         <f>_xlfn.CONCAT("Refere-se a propriedade  ",F10, "  &gt;  ",C10)</f>
-        <v>Refere-se a propriedade  tem.material  &gt;  material</v>
+        <v>Refere-se a propriedade  tem.diámetro  &gt;  diámetro</v>
       </c>
       <c r="V10" s="11" t="str">
         <f>C10</f>
-        <v>material</v>
+        <v>diámetro</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -58456,8 +58481,8 @@
         <v>tubulação</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" ref="C11" si="20">MID(F11,FIND(".",F11,1)+1,100)</f>
-        <v>isolamento</v>
+        <f t="shared" si="18"/>
+        <v>material</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>0</v>
@@ -58466,8 +58491,8 @@
         <f t="shared" si="19"/>
         <v>tubulação</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>75</v>
+      <c r="F11" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>3</v>
@@ -58505,23 +58530,23 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R11" s="8" t="str">
-        <f t="shared" ref="R11:R17" si="21">_xlfn.CONCAT("Propriedade: ",  F11, "    Domínio: ", P11, "     Range: ", Q11)</f>
-        <v>Propriedade: tem.isolamento    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="10"/>
+        <v>Propriedade: tem.material    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S11" s="8" t="str">
-        <f t="shared" ref="S11:S17" si="22">_xlfn.CONCAT("Valor:  ", C11)</f>
-        <v>Valor:  isolamento</v>
+        <f t="shared" si="11"/>
+        <v>Valor:  material</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U11" s="10" t="str">
-        <f t="shared" ref="U11:U17" si="23">_xlfn.CONCAT("Refere-se a propriedade  ",F11, "  &gt;  ",C11)</f>
-        <v>Refere-se a propriedade  tem.isolamento  &gt;  isolamento</v>
+        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F11, "  &gt;  ",C11)</f>
+        <v>Refere-se a propriedade  tem.material  &gt;  material</v>
       </c>
       <c r="V11" s="11" t="str">
-        <f t="shared" ref="V11:V17" si="24">C11</f>
-        <v>isolamento</v>
+        <f>C11</f>
+        <v>material</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -58533,8 +58558,8 @@
         <v>tubulação</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" ref="C12" si="25">MID(F12,FIND(".",F12,1)+1,100)</f>
-        <v>identificador</v>
+        <f t="shared" ref="C12" si="20">MID(F12,FIND(".",F12,1)+1,100)</f>
+        <v>isolamento</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>0</v>
@@ -58543,8 +58568,8 @@
         <f t="shared" si="19"/>
         <v>tubulação</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>71</v>
+      <c r="F12" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>3</v>
@@ -58582,23 +58607,23 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R12" s="8" t="str">
-        <f t="shared" ref="R12" si="26">_xlfn.CONCAT("Propriedade: ",  F12, "    Domínio: ", P12, "     Range: ", Q12)</f>
-        <v>Propriedade: tem.identificador    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" ref="R12:R18" si="21">_xlfn.CONCAT("Propriedade: ",  F12, "    Domínio: ", P12, "     Range: ", Q12)</f>
+        <v>Propriedade: tem.isolamento    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S12" s="8" t="str">
-        <f t="shared" ref="S12" si="27">_xlfn.CONCAT("Valor:  ", C12)</f>
-        <v>Valor:  identificador</v>
+        <f t="shared" ref="S12:S18" si="22">_xlfn.CONCAT("Valor:  ", C12)</f>
+        <v>Valor:  isolamento</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="10" t="str">
-        <f t="shared" ref="U12" si="28">_xlfn.CONCAT("Refere-se a propriedade  ",F12, "  &gt;  ",C12)</f>
-        <v>Refere-se a propriedade  tem.identificador  &gt;  identificador</v>
+        <f t="shared" ref="U12:U18" si="23">_xlfn.CONCAT("Refere-se a propriedade  ",F12, "  &gt;  ",C12)</f>
+        <v>Refere-se a propriedade  tem.isolamento  &gt;  isolamento</v>
       </c>
       <c r="V12" s="11" t="str">
-        <f t="shared" ref="V12" si="29">C12</f>
-        <v>identificador</v>
+        <f t="shared" ref="V12:V18" si="24">C12</f>
+        <v>isolamento</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -58610,8 +58635,8 @@
         <v>tubulação</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" ref="C13" si="30">MID(F13,FIND(".",F13,1)+1,100)</f>
-        <v>descrição</v>
+        <f t="shared" ref="C13" si="25">MID(F13,FIND(".",F13,1)+1,100)</f>
+        <v>identificador</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>0</v>
@@ -58621,10 +58646,10 @@
         <v>tubulação</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>3</v>
@@ -58659,72 +58684,72 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R13" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>Propriedade: tem.descrição    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" ref="R13" si="26">_xlfn.CONCAT("Propriedade: ",  F13, "    Domínio: ", P13, "     Range: ", Q13)</f>
+        <v>Propriedade: tem.identificador    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S13" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>Valor:  descrição</v>
+        <f t="shared" ref="S13" si="27">_xlfn.CONCAT("Valor:  ", C13)</f>
+        <v>Valor:  identificador</v>
       </c>
       <c r="T13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U13" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>Refere-se a propriedade  tem.descrição  &gt;  descrição</v>
+        <f t="shared" ref="U13" si="28">_xlfn.CONCAT("Refere-se a propriedade  ",F13, "  &gt;  ",C13)</f>
+        <v>Refere-se a propriedade  tem.identificador  &gt;  identificador</v>
       </c>
       <c r="V13" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>descrição</v>
+        <f t="shared" ref="V13" si="29">C13</f>
+        <v>identificador</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="13" t="str">
-        <f>E14</f>
-        <v>de.hidrosanit</v>
-      </c>
-      <c r="C14" s="13" t="str">
-        <f>F14</f>
-        <v>funcional</v>
-      </c>
-      <c r="D14" s="42" t="s">
+      <c r="B14" s="17" t="str">
+        <f t="shared" si="16"/>
+        <v>tubulação</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" ref="C14" si="30">MID(F14,FIND(".",F14,1)+1,100)</f>
+        <v>descrição</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="57" t="str">
-        <f>E6</f>
-        <v>de.hidrosanit</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>tubulação</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="K14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="L14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="M14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="N14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="60" t="str">
@@ -58737,72 +58762,71 @@
       </c>
       <c r="R14" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>Propriedade: funcional    Domínio: Instalação     Range: Hidrosanitária</v>
+        <v>Propriedade: tem.descrição    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S14" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>Valor:  funcional</v>
+        <v>Valor:  descrição</v>
       </c>
       <c r="T14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U14" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>Refere-se a propriedade  funcional  &gt;  funcional</v>
+        <v>Refere-se a propriedade  tem.descrição  &gt;  descrição</v>
       </c>
       <c r="V14" s="11" t="str">
         <f t="shared" si="24"/>
-        <v>funcional</v>
+        <v>descrição</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="17" t="str">
-        <f>Tabla2[[#This Row],[SuperProp
-(4)]]</f>
+      <c r="B15" s="13" t="str">
+        <f>E15</f>
+        <v>de.hidrosanit</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <f>F15</f>
         <v>funcional</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" ref="C15" si="31">MID(F15,FIND(".",F15,1)+1,100)</f>
-        <v>sistema</v>
-      </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f>F14</f>
-        <v>funcional</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="57" t="str">
+        <f>E6</f>
+        <v>de.hidrosanit</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="16" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="60" t="str">
@@ -58814,23 +58838,23 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R15" s="8" t="str">
-        <f t="shared" ref="R15" si="32">_xlfn.CONCAT("Propriedade: ",  F15, "    Domínio: ", P15, "     Range: ", Q15)</f>
-        <v>Propriedade: tem.sistema    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="21"/>
+        <v>Propriedade: funcional    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S15" s="8" t="str">
-        <f t="shared" ref="S15" si="33">_xlfn.CONCAT("Valor:  ", C15)</f>
-        <v>Valor:  sistema</v>
+        <f t="shared" si="22"/>
+        <v>Valor:  funcional</v>
       </c>
       <c r="T15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U15" s="10" t="str">
-        <f t="shared" ref="U15" si="34">_xlfn.CONCAT("Refere-se a propriedade  ",F15, "  &gt;  ",C15)</f>
-        <v>Refere-se a propriedade  tem.sistema  &gt;  sistema</v>
+        <f t="shared" si="23"/>
+        <v>Refere-se a propriedade  funcional  &gt;  funcional</v>
       </c>
       <c r="V15" s="11" t="str">
-        <f t="shared" ref="V15" si="35">C15</f>
-        <v>sistema</v>
+        <f t="shared" si="24"/>
+        <v>funcional</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -58843,18 +58867,18 @@
         <v>funcional</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" ref="C16:C17" si="36">MID(F16,FIND(".",F16,1)+1,100)</f>
-        <v>vazão</v>
+        <f t="shared" ref="C16" si="31">MID(F16,FIND(".",F16,1)+1,100)</f>
+        <v>sistema</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>F14</f>
+        <f>F15</f>
         <v>funcional</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>3</v>
@@ -58892,23 +58916,23 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R16" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>Propriedade: tem.vazão    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" ref="R16" si="32">_xlfn.CONCAT("Propriedade: ",  F16, "    Domínio: ", P16, "     Range: ", Q16)</f>
+        <v>Propriedade: tem.sistema    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S16" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>Valor:  vazão</v>
+        <f t="shared" ref="S16" si="33">_xlfn.CONCAT("Valor:  ", C16)</f>
+        <v>Valor:  sistema</v>
       </c>
       <c r="T16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U16" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>Refere-se a propriedade  tem.vazão  &gt;  vazão</v>
+        <f t="shared" ref="U16" si="34">_xlfn.CONCAT("Refere-se a propriedade  ",F16, "  &gt;  ",C16)</f>
+        <v>Refere-se a propriedade  tem.sistema  &gt;  sistema</v>
       </c>
       <c r="V16" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>vazão</v>
+        <f t="shared" ref="V16" si="35">C16</f>
+        <v>sistema</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -58920,45 +58944,45 @@
 (4)]]</f>
         <v>funcional</v>
       </c>
-      <c r="C17" s="53" t="str">
-        <f t="shared" si="36"/>
-        <v>fluído</v>
-      </c>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="1" t="str">
+        <f t="shared" ref="C17:C18" si="36">MID(F17,FIND(".",F17,1)+1,100)</f>
+        <v>vazão</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="55" t="str">
-        <f>E16</f>
+      <c r="E17" s="2" t="str">
+        <f>F15</f>
         <v>funcional</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="56" t="s">
+      <c r="F17" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="56" t="s">
+      <c r="L17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="56" t="s">
+      <c r="M17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="56" t="s">
+      <c r="O17" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="60" t="str">
@@ -58971,34 +58995,101 @@
       </c>
       <c r="R17" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>Propriedade: tem.fluído    Domínio: Instalação     Range: Hidrosanitária</v>
+        <v>Propriedade: tem.vazão    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S17" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>Valor:  fluído</v>
+        <v>Valor:  vazão</v>
       </c>
       <c r="T17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>Refere-se a propriedade  tem.fluído  &gt;  fluído</v>
+        <v>Refere-se a propriedade  tem.vazão  &gt;  vazão</v>
       </c>
       <c r="V17" s="11" t="str">
         <f t="shared" si="24"/>
+        <v>vazão</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="17" t="str">
+        <f>Tabla2[[#This Row],[SuperProp
+(4)]]</f>
+        <v>funcional</v>
+      </c>
+      <c r="C18" s="53" t="str">
+        <f t="shared" si="36"/>
         <v>fluído</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
+      <c r="D18" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="55" t="str">
+        <f>E17</f>
+        <v>funcional</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="60" t="str">
+        <f t="shared" si="7"/>
+        <v>Instalação</v>
+      </c>
+      <c r="Q18" s="62" t="str">
+        <f t="shared" si="8"/>
+        <v>Hidrosanitária</v>
+      </c>
+      <c r="R18" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>Propriedade: tem.fluído    Domínio: Instalação     Range: Hidrosanitária</v>
+      </c>
+      <c r="S18" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>Valor:  fluído</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v>Refere-se a propriedade  tem.fluído  &gt;  fluído</v>
+      </c>
+      <c r="V18" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>fluído</v>
+      </c>
     </row>
     <row r="19" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="22"/>
@@ -59031,74 +59122,100 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+    </row>
+    <row r="22" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2 D2:E2 E4">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D17">
-    <cfRule type="cellIs" dxfId="10" priority="33" operator="equal">
+  <conditionalFormatting sqref="D6:D7 D9:D18">
+    <cfRule type="cellIs" dxfId="12" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:E5 B7:B13 E7:E13 B15:B17 E15:E17">
+  <conditionalFormatting sqref="D5:E5 B7 E7 B16:B18 E16:E18 E10:E14 B9:B14">
+    <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="9" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
+  <conditionalFormatting sqref="G1:O7 T2:T7 T9:T18 G9:O18">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:O17 T2:T17">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21 G22:O1048576">
-    <cfRule type="cellIs" dxfId="4" priority="47" operator="equal">
+  <conditionalFormatting sqref="O22 G23:O1048576">
+    <cfRule type="cellIs" dxfId="6" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="3" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21:Q1048576">
-    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
+  <conditionalFormatting sqref="Q22:Q1048576">
+    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8 E8:E9">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:O8 T8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E14 C14 C4" formula="1"/>
-    <ignoredError sqref="B15:B17 P2:Q2" calculatedColumn="1"/>
+    <ignoredError sqref="E15 C15 C4" formula="1"/>
+    <ignoredError sqref="B16:B18 P2:Q2" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -59320,7 +59437,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário_Classes_Propriedades.xlsx
+++ b/Onto_HidroSanitário/Ontologia_V1_Projeto_HidroSanitário_Classes_Propriedades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_HidroSanitário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF1FC16-D46D-404F-BA2C-C159FE7AD576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C7782C-5105-4006-AC6A-F667D31558F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="23" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="166">
   <si>
     <t>xsd:string</t>
   </si>
@@ -599,6 +599,9 @@
   <si>
     <t>VentilaçãoEsgoto</t>
   </si>
+  <si>
+    <t>tem.tipo</t>
+  </si>
 </sst>
 </file>
 
@@ -942,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1146,12 +1149,6 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1176,76 +1173,49 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="147">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <color theme="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <color theme="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1385,6 +1355,22 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1415,19 +1401,63 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -53197,43 +53227,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:U58" totalsRowShown="0" headerRowDxfId="141" dataDxfId="139" headerRowBorderDxfId="140" tableBorderDxfId="138" totalsRowBorderDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:U58" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143" totalsRowBorderDxfId="142">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="Super_x000a_Class_x000a_2" dataDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="Super_x000a_Class_x000a_3" dataDxfId="133"/>
-    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="Super_x000a_Class_x000a_4" dataDxfId="132"/>
-    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe_x000a_5" dataDxfId="131"/>
-    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: _x000a_Raiz_x000a_Condições _x000a_necessárias" dataDxfId="130"/>
-    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: _x000a_Classe2_x000a_Condições _x000a_necessárias" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: _x000a_Classe3_x000a_Condições _x000a_necessárias" dataDxfId="128"/>
-    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: _x000a_Classe4 _x000a_Condições _x000a_necessárias" dataDxfId="127"/>
-    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: _x000a_Classe5_x000a_Condições _x000a_necessárias" dataDxfId="126"/>
-    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações _x000a_de ajuda_x000a_Classe 1" dataDxfId="125">
+    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="Super_x000a_Class_x000a_2" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="Super_x000a_Class_x000a_3" dataDxfId="138"/>
+    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="Super_x000a_Class_x000a_4" dataDxfId="137"/>
+    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe_x000a_5" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: _x000a_Raiz_x000a_Condições _x000a_necessárias" dataDxfId="135"/>
+    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: _x000a_Classe2_x000a_Condições _x000a_necessárias" dataDxfId="134"/>
+    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: _x000a_Classe3_x000a_Condições _x000a_necessárias" dataDxfId="133"/>
+    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: _x000a_Classe4 _x000a_Condições _x000a_necessárias" dataDxfId="132"/>
+    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: _x000a_Classe5_x000a_Condições _x000a_necessárias" dataDxfId="131"/>
+    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações _x000a_de ajuda_x000a_Classe 1" dataDxfId="130">
       <calculatedColumnFormula>_xlfn.CONCAT("Conceitos: ", B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações _x000a_de ajuda_x000a_Classe 2" dataDxfId="124">
+    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações _x000a_de ajuda_x000a_Classe 2" dataDxfId="129">
       <calculatedColumnFormula>_xlfn.CONCAT(C2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações _x000a_de ajuda_x000a_Classe 3" dataDxfId="123">
+    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações _x000a_de ajuda_x000a_Classe 3" dataDxfId="128">
       <calculatedColumnFormula>_xlfn.CONCAT(D2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações _x000a_de ajuda_x000a_Classe 4" dataDxfId="122">
+    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações _x000a_de ajuda_x000a_Classe 4" dataDxfId="127">
       <calculatedColumnFormula>_xlfn.CONCAT(E2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{4E2C6E2F-FBDF-486E-9FF7-21C4D4B18283}" name="Anotações _x000a_de ajuda_x000a_Classe 5" dataDxfId="121">
+    <tableColumn id="22" xr3:uid="{4E2C6E2F-FBDF-486E-9FF7-21C4D4B18283}" name="Anotações _x000a_de ajuda_x000a_Classe 5" dataDxfId="126">
       <calculatedColumnFormula>_xlfn.CONCAT(F2," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações _x000a_de ajuda_x000a_Conceito" dataDxfId="120">
+    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações _x000a_de ajuda_x000a_Conceito" dataDxfId="125">
       <calculatedColumnFormula>_xlfn.CONCAT(SUBSTITUTE(L2, "null", " ")," ",SUBSTITUTE(M2, "null", " ")," ",SUBSTITUTE(N2, "null", " ")," ",SUBSTITUTE(O2, "null", " ")," ", SUBSTITUTE(F2, "null", " "))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações _x000a_de ajuda1" dataDxfId="119">
+    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações _x000a_de ajuda1" dataDxfId="124">
       <calculatedColumnFormula>_xlfn.CONCAT("Consultar  ",S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Anotações _x000a_de ajuda2" dataDxfId="118"/>
-    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações _x000a_de ajuda3" dataDxfId="117"/>
-    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="116">
+    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Anotações _x000a_de ajuda2" dataDxfId="123"/>
+    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações _x000a_de ajuda3" dataDxfId="122"/>
+    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="121">
       <calculatedColumnFormula>_xlfn.CONCAT("Hidra-key_",A2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -53242,38 +53272,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V19" headerRowDxfId="115" dataDxfId="113" totalsRowDxfId="111" headerRowBorderDxfId="114" tableBorderDxfId="112" totalsRowBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V20" headerRowDxfId="120" dataDxfId="118" totalsRowDxfId="116" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="115">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData_x000a_(1)" dataDxfId="112" totalsRowDxfId="111">
       <calculatedColumnFormula>E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData_x000a_(2)" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData_x000a_(3)" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp_x000a_(4)" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade_x000a_(5)" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional_x000a_(6)" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional _x000a_(7)" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive_x000a_(8)" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric_x000a_(9)" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric_x000a_(10)" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive_x000a_(11)" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive_x000a_(12)" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of_x000a_(13)" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a_x000a_(14)" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain _x000a_(15)" dataDxfId="84" totalsRowDxfId="83">
       <calculatedColumnFormula>P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range_x000a_(16)" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>Q1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda_x000a_PROP_x000a_(17)" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda_x000a_DATA _x000a_(18)" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional _x000a_(19)" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário_x000a_de Valor_x000a_(20)" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula>_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição_x000a_Textual Livre _x000a_(21)" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -53282,36 +53312,36 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="42"/>
-    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="41"/>
-    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="52"/>
+    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="49"/>
+    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="48"/>
+    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="47"/>
+    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="46"/>
+    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -53609,38 +53639,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1CF42B-C783-4349-9A5C-FEC66E5FAE0F}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G32" sqref="G32"/>
       <selection pane="bottomLeft" activeCell="E51" sqref="E51:E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.44140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="22" customWidth="1"/>
     <col min="11" max="11" width="35" style="22" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="12" customWidth="1"/>
     <col min="14" max="14" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="45.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="45.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" style="12" customWidth="1"/>
     <col min="21" max="21" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="12"/>
+    <col min="22" max="16384" width="11.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
@@ -53705,17 +53735,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76">
+    <row r="2" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="74">
         <v>2</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="75" t="s">
         <v>162</v>
       </c>
       <c r="E2" s="66" t="s">
@@ -53739,19 +53769,19 @@
       <c r="K2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="79" t="str">
+      <c r="L2" s="39" t="str">
         <f t="shared" ref="L2:L3" si="0">_xlfn.CONCAT("Conceitos: ", B2)</f>
         <v>Conceitos: Instalação</v>
       </c>
-      <c r="M2" s="79" t="str">
+      <c r="M2" s="39" t="str">
         <f t="shared" ref="M2:M3" si="1">_xlfn.CONCAT(C2," ")</f>
         <v xml:space="preserve">Hidrosanitária </v>
       </c>
-      <c r="N2" s="79" t="str">
+      <c r="N2" s="39" t="str">
         <f t="shared" ref="N2:N3" si="2">_xlfn.CONCAT(D2," ")</f>
         <v xml:space="preserve">Sistema.Hidro </v>
       </c>
-      <c r="O2" s="79" t="str">
+      <c r="O2" s="39" t="str">
         <f t="shared" ref="O2:O3" si="3">_xlfn.CONCAT(E2," ")</f>
         <v xml:space="preserve">Hid.IFC </v>
       </c>
@@ -53759,35 +53789,35 @@
         <f t="shared" ref="P2:P3" si="4">_xlfn.CONCAT(F2," ")</f>
         <v xml:space="preserve">IfcDistributionSystem </v>
       </c>
-      <c r="Q2" s="79" t="str">
+      <c r="Q2" s="39" t="str">
         <f t="shared" ref="Q2:Q3" si="5">_xlfn.CONCAT(SUBSTITUTE(L2, "null", " ")," ",SUBSTITUTE(M2, "null", " ")," ",SUBSTITUTE(N2, "null", " ")," ",SUBSTITUTE(O2, "null", " ")," ", SUBSTITUTE(F2, "null", " "))</f>
         <v>Conceitos: Instalação Hidrosanitária  Sistema.Hidro  Hid.IFC  IfcDistributionSystem</v>
       </c>
-      <c r="R2" s="79" t="str">
+      <c r="R2" s="39" t="str">
         <f t="shared" ref="R2:R3" si="6">_xlfn.CONCAT("Consultar  ",S2)</f>
         <v xml:space="preserve">Consultar  </v>
       </c>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
-      <c r="U2" s="80" t="str">
+      <c r="U2" s="77" t="str">
         <f t="shared" ref="U2:U58" si="7">_xlfn.CONCAT("Hidra-key_",A2)</f>
         <v>Hidra-key_2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76">
+    <row r="3" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="76" t="s">
         <v>155</v>
       </c>
       <c r="F3" s="65" t="s">
@@ -53842,13 +53872,13 @@
       <c r="T3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="80" t="str">
+      <c r="U3" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76">
+    <row r="4" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74">
         <v>4</v>
       </c>
       <c r="B4" s="60" t="s">
@@ -53915,13 +53945,13 @@
       <c r="T4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="80" t="str">
+      <c r="U4" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76">
+    <row r="5" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="74">
         <v>5</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -53988,13 +54018,13 @@
       <c r="T5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="80" t="str">
+      <c r="U5" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76">
+    <row r="6" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74">
         <v>6</v>
       </c>
       <c r="B6" s="60" t="s">
@@ -54061,13 +54091,13 @@
       <c r="T6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="80" t="str">
+      <c r="U6" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76">
+    <row r="7" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="74">
         <v>7</v>
       </c>
       <c r="B7" s="60" t="s">
@@ -54134,13 +54164,13 @@
       <c r="T7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="80" t="str">
+      <c r="U7" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_7</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="75" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76">
+    <row r="8" spans="1:21" s="73" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="74">
         <v>8</v>
       </c>
       <c r="B8" s="60" t="s">
@@ -54207,13 +54237,13 @@
       <c r="T8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="80" t="str">
+      <c r="U8" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="75" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76">
+    <row r="9" spans="1:21" s="73" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="74">
         <v>9</v>
       </c>
       <c r="B9" s="60" t="s">
@@ -54280,13 +54310,13 @@
       <c r="T9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="80" t="str">
+      <c r="U9" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="75" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76">
+    <row r="10" spans="1:21" s="73" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="74">
         <v>10</v>
       </c>
       <c r="B10" s="60" t="s">
@@ -54353,13 +54383,13 @@
       <c r="T10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U10" s="80" t="str">
+      <c r="U10" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76">
+    <row r="11" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74">
         <v>11</v>
       </c>
       <c r="B11" s="60" t="s">
@@ -54426,13 +54456,13 @@
       <c r="T11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="80" t="str">
+      <c r="U11" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76">
+    <row r="12" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="74">
         <v>12</v>
       </c>
       <c r="B12" s="60" t="s">
@@ -54499,13 +54529,13 @@
       <c r="T12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="80" t="str">
+      <c r="U12" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76">
+    <row r="13" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="74">
         <v>13</v>
       </c>
       <c r="B13" s="60" t="s">
@@ -54572,13 +54602,13 @@
       <c r="T13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="80" t="str">
+      <c r="U13" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_13</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76">
+    <row r="14" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="74">
         <v>14</v>
       </c>
       <c r="B14" s="60" t="s">
@@ -54645,13 +54675,13 @@
       <c r="T14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="80" t="str">
+      <c r="U14" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_14</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76">
+    <row r="15" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74">
         <v>15</v>
       </c>
       <c r="B15" s="60" t="s">
@@ -54718,13 +54748,13 @@
       <c r="T15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="80" t="str">
+      <c r="U15" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76">
+    <row r="16" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="74">
         <v>16</v>
       </c>
       <c r="B16" s="60" t="s">
@@ -54791,13 +54821,13 @@
       <c r="T16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U16" s="80" t="str">
+      <c r="U16" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_16</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76">
+    <row r="17" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="74">
         <v>17</v>
       </c>
       <c r="B17" s="60" t="s">
@@ -54864,13 +54894,13 @@
       <c r="T17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U17" s="80" t="str">
+      <c r="U17" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_17</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76">
+    <row r="18" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="74">
         <v>18</v>
       </c>
       <c r="B18" s="60" t="s">
@@ -54937,13 +54967,13 @@
       <c r="T18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U18" s="80" t="str">
+      <c r="U18" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_18</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76">
+    <row r="19" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="74">
         <v>19</v>
       </c>
       <c r="B19" s="60" t="s">
@@ -55010,13 +55040,13 @@
       <c r="T19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U19" s="80" t="str">
+      <c r="U19" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_19</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76">
+    <row r="20" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="74">
         <v>20</v>
       </c>
       <c r="B20" s="60" t="s">
@@ -55083,13 +55113,13 @@
       <c r="T20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U20" s="80" t="str">
+      <c r="U20" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_20</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76">
+    <row r="21" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="74">
         <v>21</v>
       </c>
       <c r="B21" s="60" t="s">
@@ -55156,13 +55186,13 @@
       <c r="T21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U21" s="80" t="str">
+      <c r="U21" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76">
+    <row r="22" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="74">
         <v>22</v>
       </c>
       <c r="B22" s="60" t="s">
@@ -55229,13 +55259,13 @@
       <c r="T22" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U22" s="80" t="str">
+      <c r="U22" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76">
+    <row r="23" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="74">
         <v>23</v>
       </c>
       <c r="B23" s="60" t="s">
@@ -55302,13 +55332,13 @@
       <c r="T23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U23" s="80" t="str">
+      <c r="U23" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76">
+    <row r="24" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="74">
         <v>24</v>
       </c>
       <c r="B24" s="60" t="s">
@@ -55375,13 +55405,13 @@
       <c r="T24" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U24" s="80" t="str">
+      <c r="U24" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76">
+    <row r="25" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74">
         <v>25</v>
       </c>
       <c r="B25" s="60" t="s">
@@ -55448,13 +55478,13 @@
       <c r="T25" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U25" s="80" t="str">
+      <c r="U25" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_25</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76">
+    <row r="26" spans="1:21" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="74">
         <v>26</v>
       </c>
       <c r="B26" s="60" t="s">
@@ -55521,13 +55551,13 @@
       <c r="T26" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="80" t="str">
+      <c r="U26" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_26</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76">
+    <row r="27" spans="1:21" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="74">
         <v>27</v>
       </c>
       <c r="B27" s="60" t="s">
@@ -55594,13 +55624,13 @@
       <c r="T27" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U27" s="80" t="str">
+      <c r="U27" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_27</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76">
+    <row r="28" spans="1:21" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="74">
         <v>28</v>
       </c>
       <c r="B28" s="60" t="s">
@@ -55667,13 +55697,13 @@
       <c r="T28" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U28" s="80" t="str">
+      <c r="U28" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_28</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76">
+    <row r="29" spans="1:21" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="74">
         <v>29</v>
       </c>
       <c r="B29" s="60" t="s">
@@ -55740,13 +55770,13 @@
       <c r="T29" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U29" s="80" t="str">
+      <c r="U29" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_29</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76">
+    <row r="30" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="74">
         <v>30</v>
       </c>
       <c r="B30" s="60" t="s">
@@ -55813,13 +55843,13 @@
       <c r="T30" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U30" s="80" t="str">
+      <c r="U30" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_30</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76">
+    <row r="31" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74">
         <v>31</v>
       </c>
       <c r="B31" s="60" t="s">
@@ -55886,13 +55916,13 @@
       <c r="T31" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="80" t="str">
+      <c r="U31" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_31</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76">
+    <row r="32" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74">
         <v>32</v>
       </c>
       <c r="B32" s="60" t="s">
@@ -55959,13 +55989,13 @@
       <c r="T32" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U32" s="80" t="str">
+      <c r="U32" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_32</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76">
+    <row r="33" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="74">
         <v>33</v>
       </c>
       <c r="B33" s="60" t="s">
@@ -56032,13 +56062,13 @@
       <c r="T33" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U33" s="80" t="str">
+      <c r="U33" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_33</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76">
+    <row r="34" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="74">
         <v>34</v>
       </c>
       <c r="B34" s="60" t="s">
@@ -56105,13 +56135,13 @@
       <c r="T34" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U34" s="80" t="str">
+      <c r="U34" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_34</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76">
+    <row r="35" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="74">
         <v>35</v>
       </c>
       <c r="B35" s="60" t="s">
@@ -56178,13 +56208,13 @@
       <c r="T35" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U35" s="80" t="str">
+      <c r="U35" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_35</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76">
+    <row r="36" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="74">
         <v>36</v>
       </c>
       <c r="B36" s="60" t="s">
@@ -56251,13 +56281,13 @@
       <c r="T36" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U36" s="80" t="str">
+      <c r="U36" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_36</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76">
+    <row r="37" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="74">
         <v>37</v>
       </c>
       <c r="B37" s="60" t="s">
@@ -56324,13 +56354,13 @@
       <c r="T37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U37" s="80" t="str">
+      <c r="U37" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_37</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="76">
+    <row r="38" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="74">
         <v>38</v>
       </c>
       <c r="B38" s="60" t="s">
@@ -56397,13 +56427,13 @@
       <c r="T38" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U38" s="80" t="str">
+      <c r="U38" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_38</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="76">
+    <row r="39" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="74">
         <v>39</v>
       </c>
       <c r="B39" s="60" t="s">
@@ -56470,13 +56500,13 @@
       <c r="T39" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U39" s="80" t="str">
+      <c r="U39" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_39</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76">
+    <row r="40" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="74">
         <v>40</v>
       </c>
       <c r="B40" s="60" t="s">
@@ -56543,13 +56573,13 @@
       <c r="T40" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U40" s="80" t="str">
+      <c r="U40" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_40</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76">
+    <row r="41" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="74">
         <v>41</v>
       </c>
       <c r="B41" s="60" t="s">
@@ -56616,13 +56646,13 @@
       <c r="T41" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U41" s="80" t="str">
+      <c r="U41" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_41</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76">
+    <row r="42" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="74">
         <v>42</v>
       </c>
       <c r="B42" s="60" t="s">
@@ -56689,13 +56719,13 @@
       <c r="T42" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U42" s="80" t="str">
+      <c r="U42" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_42</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="76">
+    <row r="43" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="74">
         <v>43</v>
       </c>
       <c r="B43" s="60" t="s">
@@ -56762,13 +56792,13 @@
       <c r="T43" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U43" s="80" t="str">
+      <c r="U43" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_43</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="76">
+    <row r="44" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="74">
         <v>44</v>
       </c>
       <c r="B44" s="60" t="s">
@@ -56835,13 +56865,13 @@
       <c r="T44" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U44" s="80" t="str">
+      <c r="U44" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_44</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="76">
+    <row r="45" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="74">
         <v>45</v>
       </c>
       <c r="B45" s="60" t="s">
@@ -56908,13 +56938,13 @@
       <c r="T45" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U45" s="80" t="str">
+      <c r="U45" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_45</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="76">
+    <row r="46" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="74">
         <v>46</v>
       </c>
       <c r="B46" s="60" t="s">
@@ -56981,13 +57011,13 @@
       <c r="T46" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U46" s="80" t="str">
+      <c r="U46" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_46</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76">
+    <row r="47" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="74">
         <v>47</v>
       </c>
       <c r="B47" s="60" t="s">
@@ -57054,13 +57084,13 @@
       <c r="T47" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U47" s="80" t="str">
+      <c r="U47" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_47</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="76">
+    <row r="48" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="74">
         <v>48</v>
       </c>
       <c r="B48" s="60" t="s">
@@ -57127,13 +57157,13 @@
       <c r="T48" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U48" s="80" t="str">
+      <c r="U48" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_48</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="76">
+    <row r="49" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="74">
         <v>49</v>
       </c>
       <c r="B49" s="60" t="s">
@@ -57200,13 +57230,13 @@
       <c r="T49" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U49" s="80" t="str">
+      <c r="U49" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_49</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76">
+    <row r="50" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="74">
         <v>50</v>
       </c>
       <c r="B50" s="60" t="s">
@@ -57273,13 +57303,13 @@
       <c r="T50" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U50" s="80" t="str">
+      <c r="U50" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_50</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="76">
+    <row r="51" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="74">
         <v>51</v>
       </c>
       <c r="B51" s="60" t="s">
@@ -57346,13 +57376,13 @@
       <c r="T51" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U51" s="80" t="str">
+      <c r="U51" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_51</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="76">
+    <row r="52" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="74">
         <v>52</v>
       </c>
       <c r="B52" s="60" t="s">
@@ -57419,13 +57449,13 @@
       <c r="T52" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U52" s="80" t="str">
+      <c r="U52" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_52</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="76">
+    <row r="53" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="74">
         <v>53</v>
       </c>
       <c r="B53" s="60" t="s">
@@ -57492,13 +57522,13 @@
       <c r="T53" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U53" s="80" t="str">
+      <c r="U53" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_53</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="76">
+    <row r="54" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="74">
         <v>54</v>
       </c>
       <c r="B54" s="60" t="s">
@@ -57565,13 +57595,13 @@
       <c r="T54" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U54" s="80" t="str">
+      <c r="U54" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_54</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="76">
+    <row r="55" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="74">
         <v>55</v>
       </c>
       <c r="B55" s="60" t="s">
@@ -57638,13 +57668,13 @@
       <c r="T55" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U55" s="80" t="str">
+      <c r="U55" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_55</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="76">
+    <row r="56" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="74">
         <v>56</v>
       </c>
       <c r="B56" s="60" t="s">
@@ -57711,13 +57741,13 @@
       <c r="T56" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U56" s="80" t="str">
+      <c r="U56" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_56</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="76">
+    <row r="57" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="74">
         <v>57</v>
       </c>
       <c r="B57" s="60" t="s">
@@ -57784,13 +57814,13 @@
       <c r="T57" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U57" s="80" t="str">
+      <c r="U57" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_57</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="76">
+    <row r="58" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="74">
         <v>58</v>
       </c>
       <c r="B58" s="60" t="s">
@@ -57857,54 +57887,54 @@
       <c r="T58" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="U58" s="80" t="str">
+      <c r="U58" s="77" t="str">
         <f t="shared" si="7"/>
         <v>Hidra-key_58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F59:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="39" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="66"/>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="duplicateValues" dxfId="44" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="42" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F18">
+    <cfRule type="duplicateValues" dxfId="41" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:J58 G59:K1048576 G1:K19">
-    <cfRule type="cellIs" dxfId="28" priority="57" operator="equal">
+  <conditionalFormatting sqref="F5:F18">
+    <cfRule type="duplicateValues" dxfId="34" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="33" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:K19 G20:J58 G59:K1048576">
+    <cfRule type="cellIs" dxfId="24" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K58">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="26" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F18">
-    <cfRule type="duplicateValues" dxfId="24" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="5" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F18">
-    <cfRule type="duplicateValues" dxfId="4" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="147"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -57917,42 +57947,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="21" customWidth="1"/>
     <col min="2" max="2" width="8" style="22" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="21" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="21" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="21" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="21" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="21" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="22" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" style="22" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" style="22" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="22" customWidth="1"/>
-    <col min="23" max="16384" width="11.140625" style="12"/>
+    <col min="3" max="3" width="7.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" style="21" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="21" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="36.33203125" style="22" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="22" customWidth="1"/>
+    <col min="20" max="20" width="6.5546875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" style="22" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="22" customWidth="1"/>
+    <col min="23" max="16384" width="11.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -58020,7 +58050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -58074,11 +58104,11 @@
         <v>152</v>
       </c>
       <c r="R2" s="8" t="str">
-        <f t="shared" ref="R2:R4" si="1">_xlfn.CONCAT("Propriedade: ",  F2, "    Domínio: ", P2, "     Range: ", Q2)</f>
+        <f t="shared" ref="R2:R5" si="1">_xlfn.CONCAT("Propriedade: ",  F2, "    Domínio: ", P2, "     Range: ", Q2)</f>
         <v>Propriedade: de.hidrosanit    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S2" s="8" t="str">
-        <f t="shared" ref="S2:S4" si="2">_xlfn.CONCAT("Valor:  ", C2)</f>
+        <f t="shared" ref="S2:S5" si="2">_xlfn.CONCAT("Valor:  ", C2)</f>
         <v>Valor:  de.hidrosanit</v>
       </c>
       <c r="T2" s="9" t="s">
@@ -58093,7 +58123,7 @@
         <v>de.hidrosanit</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -58170,7 +58200,7 @@
         <v>classebim</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -58220,11 +58250,11 @@
         <v>3</v>
       </c>
       <c r="P4" s="59" t="str">
-        <f t="shared" ref="P4:P18" si="7">P3</f>
+        <f t="shared" ref="P4:P20" si="7">P3</f>
         <v>Instalação</v>
       </c>
       <c r="Q4" s="61" t="str">
-        <f t="shared" ref="Q4:Q18" si="8">Q3</f>
+        <f t="shared" ref="Q4:Q20" si="8">Q3</f>
         <v>Hidrosanitária</v>
       </c>
       <c r="R4" s="8" t="str">
@@ -58247,51 +58277,53 @@
         <v>categoria</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f t="shared" ref="C5:C6" si="9">F5</f>
-        <v>de.hidrosanit</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="17" t="str">
+        <f t="shared" ref="B5" si="9">E5</f>
+        <v>classebim</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" ref="C5" si="10">MID(F5,FIND(".",F5,1)+1,100)</f>
+        <v>tipo</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="2" t="str">
+        <f>F3</f>
+        <v>classebim</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P5" s="59" t="str">
@@ -58303,72 +58335,70 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R5" s="8" t="str">
-        <f t="shared" ref="R5:R11" si="10">_xlfn.CONCAT("Propriedade: ",  F5, "    Domínio: ", P5, "     Range: ", Q5)</f>
-        <v>Propriedade: de.hidrosanit    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="1"/>
+        <v>Propriedade: tem.tipo    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S5" s="8" t="str">
-        <f t="shared" ref="S5:S11" si="11">_xlfn.CONCAT("Valor:  ", C5)</f>
-        <v>Valor:  de.hidrosanit</v>
+        <f t="shared" si="2"/>
+        <v>Valor:  tipo</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U5" s="10" t="str">
-        <f t="shared" ref="U5:U9" si="12">_xlfn.CONCAT("Refere-se a propriedade  ",F5, "  &gt;  ",C5)</f>
-        <v>Refere-se a propriedade  de.hidrosanit  &gt;  de.hidrosanit</v>
+        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F5, "  &gt;  ",C5)</f>
+        <v>Refere-se a propriedade  tem.tipo  &gt;  tipo</v>
       </c>
       <c r="V5" s="11" t="str">
-        <f t="shared" ref="V5:V9" si="13">C5</f>
-        <v>de.hidrosanit</v>
+        <f>C5</f>
+        <v>tipo</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="str">
-        <f>E6</f>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" ref="C6:C7" si="11">F6</f>
         <v>de.hidrosanit</v>
       </c>
-      <c r="C6" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v>tubulação</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="str">
-        <f>F5</f>
-        <v>de.hidrosanit</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P6" s="59" t="str">
@@ -58380,72 +58410,72 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R6" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>Propriedade: tubulação    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" ref="R6:R12" si="12">_xlfn.CONCAT("Propriedade: ",  F6, "    Domínio: ", P6, "     Range: ", Q6)</f>
+        <v>Propriedade: de.hidrosanit    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S6" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>Valor:  tubulação</v>
+        <f t="shared" ref="S6:S12" si="13">_xlfn.CONCAT("Valor:  ", C6)</f>
+        <v>Valor:  de.hidrosanit</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U6" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>Refere-se a propriedade  tubulação  &gt;  tubulação</v>
+        <f t="shared" ref="U6:U10" si="14">_xlfn.CONCAT("Refere-se a propriedade  ",F6, "  &gt;  ",C6)</f>
+        <v>Refere-se a propriedade  de.hidrosanit  &gt;  de.hidrosanit</v>
       </c>
       <c r="V6" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>tubulação</v>
+        <f t="shared" ref="V6:V10" si="15">C6</f>
+        <v>de.hidrosanit</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="17" t="str">
-        <f t="shared" ref="B7:B8" si="14">E7</f>
+      <c r="B7" s="13" t="str">
+        <f>E7</f>
+        <v>de.hidrosanit</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f t="shared" si="11"/>
         <v>tubulação</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" ref="C7:C8" si="15">MID(F7,FIND(".",F7,1)+1,100)</f>
-        <v>identidade</v>
-      </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="14" t="str">
         <f>F6</f>
-        <v>tubulação</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="19" t="s">
+        <v>de.hidrosanit</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="J7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="19" t="s">
+      <c r="K7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="L7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="M7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="59" t="str">
@@ -58457,46 +58487,46 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R7" s="8" t="str">
-        <f>_xlfn.CONCAT("Propriedade: ",  F7, "    Domínio: ", P7, "     Range: ", Q7)</f>
-        <v>Propriedade: tem.identidade    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="12"/>
+        <v>Propriedade: tubulação    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S7" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>Valor:  identidade</v>
+        <f t="shared" si="13"/>
+        <v>Valor:  tubulação</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>Refere-se a propriedade  tem.identidade  &gt;  identidade</v>
+        <f t="shared" si="14"/>
+        <v>Refere-se a propriedade  tubulação  &gt;  tubulação</v>
       </c>
       <c r="V7" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>identidade</v>
+        <f t="shared" si="15"/>
+        <v>tubulação</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="17" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B8:B9" si="16">E8</f>
         <v>tubulação</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>ID</v>
+        <f t="shared" ref="C8:C9" si="17">MID(F8,FIND(".",F8,1)+1,100)</f>
+        <v>identidade</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>E7</f>
+        <f>F7</f>
         <v>tubulação</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>28</v>
@@ -58535,35 +58565,35 @@
       </c>
       <c r="R8" s="8" t="str">
         <f>_xlfn.CONCAT("Propriedade: ",  F8, "    Domínio: ", P8, "     Range: ", Q8)</f>
-        <v>Propriedade: tem.ID    Domínio: Instalação     Range: Hidrosanitária</v>
+        <v>Propriedade: tem.identidade    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S8" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>Valor:  ID</v>
+        <f t="shared" si="13"/>
+        <v>Valor:  identidade</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>Refere-se a propriedade  tem.ID  &gt;  ID</v>
+        <f t="shared" si="14"/>
+        <v>Refere-se a propriedade  tem.identidade  &gt;  identidade</v>
       </c>
       <c r="V8" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>ID</v>
+        <f t="shared" si="15"/>
+        <v>identidade</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
       <c r="B9" s="17" t="str">
-        <f t="shared" ref="B9:B14" si="16">E9</f>
+        <f t="shared" si="16"/>
         <v>tubulação</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" ref="C9" si="17">MID(F9,FIND(".",F9,1)+1,100)</f>
-        <v>tema</v>
+        <f t="shared" si="17"/>
+        <v>ID</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>0</v>
@@ -58573,10 +58603,10 @@
         <v>tubulação</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>3</v>
@@ -58591,7 +58621,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>3</v>
@@ -58611,46 +58641,46 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R9" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>Propriedade: é.tema    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f>_xlfn.CONCAT("Propriedade: ",  F9, "    Domínio: ", P9, "     Range: ", Q9)</f>
+        <v>Propriedade: tem.ID    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S9" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>Valor:  tema</v>
+        <f t="shared" si="13"/>
+        <v>Valor:  ID</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U9" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>Refere-se a propriedade  é.tema  &gt;  tema</v>
+        <f t="shared" si="14"/>
+        <v>Refere-se a propriedade  tem.ID  &gt;  ID</v>
       </c>
       <c r="V9" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>tema</v>
+        <f t="shared" si="15"/>
+        <v>ID</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
       <c r="B10" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B10:B15" si="18">E10</f>
         <v>tubulação</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" ref="C10:C11" si="18">MID(F10,FIND(".",F10,1)+1,100)</f>
-        <v>diámetro</v>
+        <f t="shared" ref="C10" si="19">MID(F10,FIND(".",F10,1)+1,100)</f>
+        <v>tema</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" ref="E10:E14" si="19">E9</f>
+        <f>E9</f>
         <v>tubulação</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>3</v>
@@ -58688,46 +58718,46 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R10" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>Propriedade: tem.diámetro    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="12"/>
+        <v>Propriedade: é.tema    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S10" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>Valor:  diámetro</v>
+        <f t="shared" si="13"/>
+        <v>Valor:  tema</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U10" s="10" t="str">
-        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F10, "  &gt;  ",C10)</f>
-        <v>Refere-se a propriedade  tem.diámetro  &gt;  diámetro</v>
+        <f t="shared" si="14"/>
+        <v>Refere-se a propriedade  é.tema  &gt;  tema</v>
       </c>
       <c r="V10" s="11" t="str">
-        <f>C10</f>
-        <v>diámetro</v>
+        <f t="shared" si="15"/>
+        <v>tema</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
       <c r="B11" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>tubulação</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>material</v>
+        <f t="shared" ref="C11:C12" si="20">MID(F11,FIND(".",F11,1)+1,100)</f>
+        <v>diámetro</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="E11:E15" si="21">E10</f>
         <v>tubulação</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>3</v>
@@ -58765,46 +58795,46 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R11" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>Propriedade: tem.material    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="12"/>
+        <v>Propriedade: tem.diámetro    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S11" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>Valor:  material</v>
+        <f t="shared" si="13"/>
+        <v>Valor:  diámetro</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U11" s="10" t="str">
         <f>_xlfn.CONCAT("Refere-se a propriedade  ",F11, "  &gt;  ",C11)</f>
-        <v>Refere-se a propriedade  tem.material  &gt;  material</v>
+        <v>Refere-se a propriedade  tem.diámetro  &gt;  diámetro</v>
       </c>
       <c r="V11" s="11" t="str">
         <f>C11</f>
-        <v>material</v>
+        <v>diámetro</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
       <c r="B12" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>tubulação</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" ref="C12" si="20">MID(F12,FIND(".",F12,1)+1,100)</f>
-        <v>isolamento</v>
+        <f t="shared" si="20"/>
+        <v>material</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>tubulação</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>75</v>
+      <c r="F12" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>3</v>
@@ -58842,46 +58872,46 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R12" s="8" t="str">
-        <f t="shared" ref="R12:R19" si="21">_xlfn.CONCAT("Propriedade: ",  F12, "    Domínio: ", P12, "     Range: ", Q12)</f>
-        <v>Propriedade: tem.isolamento    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="12"/>
+        <v>Propriedade: tem.material    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S12" s="8" t="str">
-        <f t="shared" ref="S12:S19" si="22">_xlfn.CONCAT("Valor:  ", C12)</f>
-        <v>Valor:  isolamento</v>
+        <f t="shared" si="13"/>
+        <v>Valor:  material</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="10" t="str">
-        <f t="shared" ref="U12:U19" si="23">_xlfn.CONCAT("Refere-se a propriedade  ",F12, "  &gt;  ",C12)</f>
-        <v>Refere-se a propriedade  tem.isolamento  &gt;  isolamento</v>
+        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F12, "  &gt;  ",C12)</f>
+        <v>Refere-se a propriedade  tem.material  &gt;  material</v>
       </c>
       <c r="V12" s="11" t="str">
-        <f t="shared" ref="V12:V19" si="24">C12</f>
-        <v>isolamento</v>
+        <f>C12</f>
+        <v>material</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
       <c r="B13" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>tubulação</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" ref="C13" si="25">MID(F13,FIND(".",F13,1)+1,100)</f>
-        <v>identificador</v>
+        <f t="shared" ref="C13" si="22">MID(F13,FIND(".",F13,1)+1,100)</f>
+        <v>isolamento</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>tubulação</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>71</v>
+      <c r="F13" s="51" t="s">
+        <v>75</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>3</v>
@@ -58919,49 +58949,49 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R13" s="8" t="str">
-        <f t="shared" ref="R13" si="26">_xlfn.CONCAT("Propriedade: ",  F13, "    Domínio: ", P13, "     Range: ", Q13)</f>
-        <v>Propriedade: tem.identificador    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" ref="R13:R20" si="23">_xlfn.CONCAT("Propriedade: ",  F13, "    Domínio: ", P13, "     Range: ", Q13)</f>
+        <v>Propriedade: tem.isolamento    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S13" s="8" t="str">
-        <f t="shared" ref="S13" si="27">_xlfn.CONCAT("Valor:  ", C13)</f>
-        <v>Valor:  identificador</v>
+        <f t="shared" ref="S13:S20" si="24">_xlfn.CONCAT("Valor:  ", C13)</f>
+        <v>Valor:  isolamento</v>
       </c>
       <c r="T13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U13" s="10" t="str">
-        <f t="shared" ref="U13" si="28">_xlfn.CONCAT("Refere-se a propriedade  ",F13, "  &gt;  ",C13)</f>
-        <v>Refere-se a propriedade  tem.identificador  &gt;  identificador</v>
+        <f t="shared" ref="U13:U20" si="25">_xlfn.CONCAT("Refere-se a propriedade  ",F13, "  &gt;  ",C13)</f>
+        <v>Refere-se a propriedade  tem.isolamento  &gt;  isolamento</v>
       </c>
       <c r="V13" s="11" t="str">
-        <f t="shared" ref="V13" si="29">C13</f>
-        <v>identificador</v>
+        <f t="shared" ref="V13:V20" si="26">C13</f>
+        <v>isolamento</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
       <c r="B14" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>tubulação</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" ref="C14" si="30">MID(F14,FIND(".",F14,1)+1,100)</f>
-        <v>descrição</v>
+        <f t="shared" ref="C14" si="27">MID(F14,FIND(".",F14,1)+1,100)</f>
+        <v>identificador</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>tubulação</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>3</v>
@@ -58996,72 +59026,72 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R14" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>Propriedade: tem.descrição    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" ref="R14" si="28">_xlfn.CONCAT("Propriedade: ",  F14, "    Domínio: ", P14, "     Range: ", Q14)</f>
+        <v>Propriedade: tem.identificador    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S14" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>Valor:  descrição</v>
+        <f t="shared" ref="S14" si="29">_xlfn.CONCAT("Valor:  ", C14)</f>
+        <v>Valor:  identificador</v>
       </c>
       <c r="T14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U14" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>Refere-se a propriedade  tem.descrição  &gt;  descrição</v>
+        <f t="shared" ref="U14" si="30">_xlfn.CONCAT("Refere-se a propriedade  ",F14, "  &gt;  ",C14)</f>
+        <v>Refere-se a propriedade  tem.identificador  &gt;  identificador</v>
       </c>
       <c r="V14" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>descrição</v>
+        <f t="shared" ref="V14" si="31">C14</f>
+        <v>identificador</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="13" t="str">
-        <f>E15</f>
-        <v>de.hidrosanit</v>
-      </c>
-      <c r="C15" s="13" t="str">
-        <f>F15</f>
-        <v>funcional</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="B15" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>tubulação</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" ref="C15" si="32">MID(F15,FIND(".",F15,1)+1,100)</f>
+        <v>descrição</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="56" t="str">
-        <f>E6</f>
-        <v>de.hidrosanit</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>tubulação</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="J15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="K15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="L15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="M15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="59" t="str">
@@ -59073,73 +59103,72 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R15" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>Propriedade: funcional    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="23"/>
+        <v>Propriedade: tem.descrição    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S15" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>Valor:  funcional</v>
+        <f t="shared" si="24"/>
+        <v>Valor:  descrição</v>
       </c>
       <c r="T15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U15" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>Refere-se a propriedade  funcional  &gt;  funcional</v>
+        <f t="shared" si="25"/>
+        <v>Refere-se a propriedade  tem.descrição  &gt;  descrição</v>
       </c>
       <c r="V15" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>funcional</v>
+        <f t="shared" si="26"/>
+        <v>descrição</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16" s="17" t="str">
-        <f>Tabla2[[#This Row],[SuperProp
-(4)]]</f>
+      <c r="B16" s="13" t="str">
+        <f>E16</f>
+        <v>de.hidrosanit</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <f>F16</f>
         <v>funcional</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" ref="C16" si="31">MID(F16,FIND(".",F16,1)+1,100)</f>
-        <v>sistema</v>
-      </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f>F15</f>
-        <v>funcional</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="E16" s="56" t="str">
+        <f>E7</f>
+        <v>de.hidrosanit</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="16" t="s">
         <v>3</v>
       </c>
       <c r="P16" s="59" t="str">
@@ -59151,26 +59180,26 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R16" s="8" t="str">
-        <f t="shared" ref="R16" si="32">_xlfn.CONCAT("Propriedade: ",  F16, "    Domínio: ", P16, "     Range: ", Q16)</f>
-        <v>Propriedade: tem.sistema    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="23"/>
+        <v>Propriedade: funcional    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S16" s="8" t="str">
-        <f t="shared" ref="S16" si="33">_xlfn.CONCAT("Valor:  ", C16)</f>
-        <v>Valor:  sistema</v>
+        <f t="shared" si="24"/>
+        <v>Valor:  funcional</v>
       </c>
       <c r="T16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U16" s="10" t="str">
-        <f t="shared" ref="U16" si="34">_xlfn.CONCAT("Refere-se a propriedade  ",F16, "  &gt;  ",C16)</f>
-        <v>Refere-se a propriedade  tem.sistema  &gt;  sistema</v>
+        <f t="shared" si="25"/>
+        <v>Refere-se a propriedade  funcional  &gt;  funcional</v>
       </c>
       <c r="V16" s="11" t="str">
-        <f t="shared" ref="V16" si="35">C16</f>
-        <v>sistema</v>
+        <f t="shared" si="26"/>
+        <v>funcional</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -59180,18 +59209,18 @@
         <v>funcional</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" ref="C17:C19" si="36">MID(F17,FIND(".",F17,1)+1,100)</f>
-        <v>vazão</v>
+        <f t="shared" ref="C17" si="33">MID(F17,FIND(".",F17,1)+1,100)</f>
+        <v>sistema</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f>F15</f>
+        <f>F16</f>
         <v>funcional</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>3</v>
@@ -59229,26 +59258,26 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R17" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>Propriedade: tem.vazão    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" ref="R17" si="34">_xlfn.CONCAT("Propriedade: ",  F17, "    Domínio: ", P17, "     Range: ", Q17)</f>
+        <v>Propriedade: tem.sistema    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S17" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>Valor:  vazão</v>
+        <f t="shared" ref="S17" si="35">_xlfn.CONCAT("Valor:  ", C17)</f>
+        <v>Valor:  sistema</v>
       </c>
       <c r="T17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>Refere-se a propriedade  tem.vazão  &gt;  vazão</v>
+        <f t="shared" ref="U17" si="36">_xlfn.CONCAT("Refere-se a propriedade  ",F17, "  &gt;  ",C17)</f>
+        <v>Refere-se a propriedade  tem.sistema  &gt;  sistema</v>
       </c>
       <c r="V17" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>vazão</v>
+        <f t="shared" ref="V17" si="37">C17</f>
+        <v>sistema</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -59257,45 +59286,45 @@
 (4)]]</f>
         <v>funcional</v>
       </c>
-      <c r="C18" s="52" t="str">
-        <f t="shared" si="36"/>
-        <v>fluído</v>
-      </c>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="1" t="str">
+        <f t="shared" ref="C18:C20" si="38">MID(F18,FIND(".",F18,1)+1,100)</f>
+        <v>vazão</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="54" t="str">
-        <f>E17</f>
+      <c r="E18" s="2" t="str">
+        <f>F16</f>
         <v>funcional</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="55" t="s">
+      <c r="F18" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="55" t="s">
+      <c r="L18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="55" t="s">
+      <c r="M18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="55" t="s">
+      <c r="N18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="55" t="s">
+      <c r="O18" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="59" t="str">
@@ -59307,36 +59336,37 @@
         <v>Hidrosanitária</v>
       </c>
       <c r="R18" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>Propriedade: tem.fluído    Domínio: Instalação     Range: Hidrosanitária</v>
+        <f t="shared" si="23"/>
+        <v>Propriedade: tem.vazão    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
       <c r="S18" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>Valor:  fluído</v>
+        <f t="shared" si="24"/>
+        <v>Valor:  vazão</v>
       </c>
       <c r="T18" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v>Refere-se a propriedade  tem.fluído  &gt;  fluído</v>
+        <f t="shared" si="25"/>
+        <v>Refere-se a propriedade  tem.vazão  &gt;  vazão</v>
       </c>
       <c r="V18" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>fluído</v>
+        <f t="shared" si="26"/>
+        <v>vazão</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>19</v>
       </c>
-      <c r="B19" s="67" t="str">
-        <f>E19</f>
+      <c r="B19" s="17" t="str">
+        <f>Tabla2[[#This Row],[SuperProp
+(4)]]</f>
         <v>funcional</v>
       </c>
       <c r="C19" s="52" t="str">
-        <f t="shared" si="36"/>
-        <v>conectado.a</v>
+        <f t="shared" si="38"/>
+        <v>fluído</v>
       </c>
       <c r="D19" s="53" t="s">
         <v>0</v>
@@ -59345,8 +59375,8 @@
         <f>E18</f>
         <v>funcional</v>
       </c>
-      <c r="F19" s="68" t="s">
-        <v>159</v>
+      <c r="F19" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>3</v>
@@ -59375,46 +59405,112 @@
       <c r="O19" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="69" t="str">
-        <f>P18</f>
+      <c r="P19" s="59" t="str">
+        <f t="shared" si="7"/>
         <v>Instalação</v>
       </c>
-      <c r="Q19" s="70" t="str">
-        <f>Q18</f>
+      <c r="Q19" s="61" t="str">
+        <f t="shared" si="8"/>
         <v>Hidrosanitária</v>
       </c>
-      <c r="R19" s="71" t="str">
-        <f t="shared" si="21"/>
+      <c r="R19" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v>Propriedade: tem.fluído    Domínio: Instalação     Range: Hidrosanitária</v>
+      </c>
+      <c r="S19" s="8" t="str">
+        <f t="shared" si="24"/>
+        <v>Valor:  fluído</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>Refere-se a propriedade  tem.fluído  &gt;  fluído</v>
+      </c>
+      <c r="V19" s="11" t="str">
+        <f t="shared" si="26"/>
+        <v>fluído</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="67" t="str">
+        <f>E20</f>
+        <v>funcional</v>
+      </c>
+      <c r="C20" s="52" t="str">
+        <f t="shared" si="38"/>
+        <v>conectado.a</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="54" t="str">
+        <f>E19</f>
+        <v>funcional</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="59" t="str">
+        <f t="shared" si="7"/>
+        <v>Instalação</v>
+      </c>
+      <c r="Q20" s="61" t="str">
+        <f t="shared" si="8"/>
+        <v>Hidrosanitária</v>
+      </c>
+      <c r="R20" s="69" t="str">
+        <f t="shared" si="23"/>
         <v>Propriedade: é.conectado.a    Domínio: Instalação     Range: Hidrosanitária</v>
       </c>
-      <c r="S19" s="71" t="str">
-        <f t="shared" si="22"/>
+      <c r="S20" s="69" t="str">
+        <f t="shared" si="24"/>
         <v>Valor:  conectado.a</v>
       </c>
-      <c r="T19" s="72" t="s">
+      <c r="T20" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="73" t="str">
-        <f t="shared" si="23"/>
+      <c r="U20" s="71" t="str">
+        <f t="shared" si="25"/>
         <v>Refere-se a propriedade  é.conectado.a  &gt;  conectado.a</v>
       </c>
-      <c r="V19" s="74" t="str">
-        <f t="shared" si="24"/>
+      <c r="V20" s="72" t="str">
+        <f t="shared" si="26"/>
         <v>conectado.a</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-    </row>
-    <row r="21" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -59425,7 +59521,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -59434,99 +59530,130 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2 D2:E2 E4">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+  <conditionalFormatting sqref="B2 D2:E2 E5">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+  <conditionalFormatting sqref="B5:B6">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B14 E7:E14">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+  <conditionalFormatting sqref="B8:B15 E8:E15">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B19 E16:E19">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+  <conditionalFormatting sqref="B17:B20 E17:E20">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+  <conditionalFormatting sqref="D3 D5">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D19">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+  <conditionalFormatting sqref="D7:D20">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:E5">
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
+  <conditionalFormatting sqref="D6:E6">
+    <cfRule type="cellIs" dxfId="16" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="15" priority="40" operator="equal">
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="14" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:O19">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+  <conditionalFormatting sqref="G1:O3 G5:O20 G4:G5">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+  <conditionalFormatting sqref="O20">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22 G23:O1048576">
-    <cfRule type="cellIs" dxfId="11" priority="56" operator="equal">
+  <conditionalFormatting sqref="O23 G24:O1048576">
+    <cfRule type="cellIs" dxfId="10" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="10" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+  <conditionalFormatting sqref="Q23:Q1048576">
+    <cfRule type="cellIs" dxfId="7" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:Q1048576">
-    <cfRule type="cellIs" dxfId="8" priority="54" operator="equal">
+  <conditionalFormatting sqref="T2:T3 T5:T20">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T19">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:O4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E15 C15 C4" formula="1"/>
-    <ignoredError sqref="B16:B18 P2:Q2" calculatedColumn="1"/>
+    <ignoredError sqref="E16 C16 C5" formula="1"/>
+    <ignoredError sqref="B17:B19 P2:Q2" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -59542,12 +59669,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="6.5703125" style="22" customWidth="1"/>
-    <col min="11" max="21" width="6.5703125" style="30" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="30"/>
+    <col min="1" max="1" width="2.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="6.5546875" style="22" customWidth="1"/>
+    <col min="11" max="21" width="6.5546875" style="30" customWidth="1"/>
+    <col min="22" max="16384" width="11.109375" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -59748,7 +59875,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
